--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\configuration\master-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0043BC-6CB8-4754-BEF0-56304E21F309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4E185-CAF8-4152-862D-CDD7CFE40DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="5610" windowWidth="37065" windowHeight="19335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28935" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_definitions_new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="1484">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4469,6 +4469,9 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.proband.ProbandService.exportVisitPlan</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.massmail.MassMailService.prepareRecipients</t>
   </si>
 </sst>
 </file>
@@ -5340,10 +5343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306:XFD306"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="A768" sqref="A768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18120,24 +18123,21 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B768" t="s">
-        <v>20</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D768" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E768" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I768" t="s">
-        <v>1013</v>
+    <row r="768" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H768" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.25">
@@ -18151,27 +18151,33 @@
         <v>1020</v>
       </c>
       <c r="D769" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E769" t="s">
-        <v>421</v>
+        <v>1012</v>
       </c>
       <c r="I769" t="s">
-        <v>1057</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1058</v>
+        <v>1056</v>
+      </c>
+      <c r="B770" t="s">
+        <v>20</v>
       </c>
       <c r="C770" t="s">
-        <v>1059</v>
+        <v>1020</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1022</v>
       </c>
       <c r="E770" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="I770" t="s">
-        <v>1009</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
@@ -18179,30 +18185,27 @@
         <v>1058</v>
       </c>
       <c r="C771" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E771" t="s">
-        <v>11</v>
+        <v>1012</v>
       </c>
       <c r="I771" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C773" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E773" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F773" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I773" t="s">
-        <v>1065</v>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E772" t="s">
+        <v>11</v>
+      </c>
+      <c r="I772" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.25">
@@ -18210,16 +18213,16 @@
         <v>1061</v>
       </c>
       <c r="C774" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E774" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F774" t="s">
         <v>1064</v>
       </c>
-      <c r="I774" s="1" t="s">
-        <v>335</v>
+      <c r="I774" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.25">
@@ -18227,92 +18230,89 @@
         <v>1061</v>
       </c>
       <c r="C775" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E775" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F775" t="s">
         <v>1064</v>
       </c>
-      <c r="I775" t="s">
-        <v>366</v>
+      <c r="I775" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1061</v>
       </c>
-      <c r="B776" s="2"/>
       <c r="C776" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E776" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F776" t="s">
         <v>1064</v>
       </c>
       <c r="I776" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1061</v>
       </c>
-      <c r="B777" t="s">
-        <v>20</v>
-      </c>
+      <c r="B777" s="2"/>
       <c r="C777" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E777" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F777" t="s">
         <v>1064</v>
       </c>
       <c r="I777" t="s">
-        <v>702</v>
+        <v>419</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1061</v>
       </c>
-      <c r="B778" s="2"/>
+      <c r="B778" t="s">
+        <v>20</v>
+      </c>
       <c r="C778" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E778" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F778" t="s">
         <v>1064</v>
       </c>
       <c r="I778" t="s">
-        <v>1075</v>
+        <v>702</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1076</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="B779" s="2"/>
       <c r="C779" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D779" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E779" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F779" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I779" s="1" t="s">
-        <v>1080</v>
+        <v>1064</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.25">
@@ -18323,16 +18323,16 @@
         <v>1077</v>
       </c>
       <c r="D780" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E780" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F780" t="s">
         <v>1079</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>236</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.25">
@@ -18343,115 +18343,115 @@
         <v>1077</v>
       </c>
       <c r="D781" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E781" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F781" t="s">
         <v>1079</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>1083</v>
+        <v>236</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1076</v>
       </c>
-      <c r="B782" s="2"/>
       <c r="C782" t="s">
         <v>1077</v>
       </c>
       <c r="D782" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E782" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F782" t="s">
         <v>1079</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1076</v>
       </c>
-      <c r="B783" t="s">
-        <v>20</v>
-      </c>
+      <c r="B783" s="2"/>
       <c r="C783" t="s">
         <v>1077</v>
       </c>
       <c r="D783" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E783" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F783" t="s">
         <v>1079</v>
       </c>
-      <c r="I783" t="s">
-        <v>857</v>
+      <c r="I783" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1076</v>
       </c>
-      <c r="B784" s="2"/>
+      <c r="B784" t="s">
+        <v>20</v>
+      </c>
       <c r="C784" t="s">
         <v>1077</v>
       </c>
       <c r="D784" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E784" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F784" t="s">
         <v>1079</v>
       </c>
-      <c r="I784" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="785" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I784" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1076</v>
       </c>
-      <c r="G785" t="s">
+      <c r="B785" s="2"/>
+      <c r="C785" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I785" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G786" t="s">
         <v>1088</v>
       </c>
-      <c r="H785" t="s">
+      <c r="H786" t="s">
         <v>1089</v>
       </c>
-      <c r="I785" s="4" t="s">
+      <c r="I786" s="4" t="s">
         <v>1462</v>
-      </c>
-    </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C786" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E786" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F786" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I786" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.25">
@@ -18462,16 +18462,16 @@
         <v>1091</v>
       </c>
       <c r="D787" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E787" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F787" t="s">
         <v>1093</v>
       </c>
-      <c r="I787" s="1" t="s">
-        <v>335</v>
+      <c r="I787" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
@@ -18482,101 +18482,101 @@
         <v>1091</v>
       </c>
       <c r="D788" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E788" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F788" t="s">
         <v>1093</v>
       </c>
-      <c r="I788" t="s">
-        <v>352</v>
+      <c r="I788" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1090</v>
       </c>
-      <c r="B789" s="2"/>
       <c r="C789" t="s">
         <v>1091</v>
       </c>
       <c r="D789" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E789" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F789" t="s">
         <v>1093</v>
       </c>
       <c r="I789" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1090</v>
       </c>
-      <c r="B790" t="s">
-        <v>20</v>
-      </c>
+      <c r="B790" s="2"/>
       <c r="C790" t="s">
         <v>1091</v>
       </c>
       <c r="D790" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E790" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F790" t="s">
         <v>1093</v>
       </c>
       <c r="I790" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1090</v>
       </c>
-      <c r="B791" s="2"/>
+      <c r="B791" t="s">
+        <v>20</v>
+      </c>
       <c r="C791" t="s">
         <v>1091</v>
       </c>
       <c r="D791" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E791" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F791" t="s">
         <v>1093</v>
       </c>
       <c r="I791" t="s">
-        <v>1017</v>
+        <v>422</v>
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1099</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="B792" s="2"/>
       <c r="C792" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D792" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E792" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F792" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="I792" t="s">
-        <v>35</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.25">
@@ -18587,16 +18587,16 @@
         <v>1077</v>
       </c>
       <c r="D793" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E793" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F793" t="s">
         <v>1100</v>
       </c>
-      <c r="I793" s="1" t="s">
-        <v>139</v>
+      <c r="I793" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.25">
@@ -18607,115 +18607,115 @@
         <v>1077</v>
       </c>
       <c r="D794" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E794" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F794" t="s">
         <v>1100</v>
       </c>
-      <c r="I794" t="s">
-        <v>352</v>
+      <c r="I794" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1099</v>
       </c>
-      <c r="B795" s="2"/>
       <c r="C795" t="s">
         <v>1077</v>
       </c>
       <c r="D795" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E795" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F795" t="s">
         <v>1100</v>
       </c>
       <c r="I795" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1099</v>
       </c>
-      <c r="B796" t="s">
-        <v>20</v>
-      </c>
+      <c r="B796" s="2"/>
       <c r="C796" t="s">
         <v>1077</v>
       </c>
       <c r="D796" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E796" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F796" t="s">
         <v>1100</v>
       </c>
       <c r="I796" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1099</v>
       </c>
-      <c r="B797" s="2"/>
+      <c r="B797" t="s">
+        <v>20</v>
+      </c>
       <c r="C797" t="s">
         <v>1077</v>
       </c>
       <c r="D797" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E797" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F797" t="s">
         <v>1100</v>
       </c>
       <c r="I797" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B798" s="2"/>
+      <c r="C798" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I798" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="798" spans="1:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A798" s="2" t="s">
+    <row r="799" spans="1:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="G798" s="2" t="s">
+      <c r="G799" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H798" s="2" t="s">
+      <c r="H799" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="I798" s="4" t="s">
+      <c r="I799" s="4" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C799" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D799" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E799" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F799" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I799" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.25">
@@ -18726,16 +18726,16 @@
         <v>1091</v>
       </c>
       <c r="D800" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E800" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F800" t="s">
         <v>1102</v>
       </c>
       <c r="I800" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.25">
@@ -18746,16 +18746,16 @@
         <v>1091</v>
       </c>
       <c r="D801" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E801" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F801" t="s">
         <v>1102</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.25">
@@ -18766,98 +18766,98 @@
         <v>1091</v>
       </c>
       <c r="D802" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E802" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F802" t="s">
         <v>1102</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1101</v>
       </c>
-      <c r="B803" s="2"/>
       <c r="C803" t="s">
         <v>1091</v>
       </c>
+      <c r="D803" t="s">
+        <v>1096</v>
+      </c>
       <c r="E803" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F803" t="s">
         <v>1102</v>
       </c>
-      <c r="I803" t="s">
-        <v>1104</v>
+      <c r="I803" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1101</v>
       </c>
-      <c r="B804" t="s">
-        <v>20</v>
-      </c>
+      <c r="B804" s="2"/>
       <c r="C804" t="s">
         <v>1091</v>
       </c>
-      <c r="D804" t="s">
-        <v>1097</v>
-      </c>
       <c r="E804" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F804" t="s">
         <v>1102</v>
       </c>
       <c r="I804" t="s">
-        <v>782</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1101</v>
       </c>
-      <c r="B805" s="2"/>
+      <c r="B805" t="s">
+        <v>20</v>
+      </c>
       <c r="C805" t="s">
         <v>1091</v>
       </c>
       <c r="D805" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E805" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F805" t="s">
         <v>1102</v>
       </c>
-      <c r="I805" s="1" t="s">
-        <v>1025</v>
+      <c r="I805" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1105</v>
-      </c>
+        <v>1101</v>
+      </c>
+      <c r="B806" s="2"/>
       <c r="C806" t="s">
         <v>1091</v>
       </c>
       <c r="D806" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E806" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F806" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>23</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.25">
@@ -18868,16 +18868,16 @@
         <v>1091</v>
       </c>
       <c r="D807" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E807" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F807" t="s">
         <v>1106</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.25">
@@ -18888,121 +18888,121 @@
         <v>1091</v>
       </c>
       <c r="D808" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E808" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F808" t="s">
         <v>1106</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1105</v>
       </c>
-      <c r="B809" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C809" t="s">
         <v>1091</v>
       </c>
       <c r="D809" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E809" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F809" t="s">
         <v>1106</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>1107</v>
+        <v>371</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1105</v>
       </c>
-      <c r="B810" s="2"/>
+      <c r="B810" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C810" t="s">
         <v>1091</v>
       </c>
+      <c r="D810" t="s">
+        <v>1096</v>
+      </c>
       <c r="E810" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F810" t="s">
         <v>1106</v>
       </c>
-      <c r="I810" t="s">
-        <v>1104</v>
+      <c r="I810" s="1" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1105</v>
       </c>
-      <c r="B811" t="s">
-        <v>20</v>
-      </c>
+      <c r="B811" s="2"/>
       <c r="C811" t="s">
         <v>1091</v>
       </c>
-      <c r="D811" t="s">
-        <v>1097</v>
-      </c>
       <c r="E811" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F811" t="s">
         <v>1106</v>
       </c>
       <c r="I811" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1105</v>
       </c>
-      <c r="B812" s="2"/>
+      <c r="B812" t="s">
+        <v>20</v>
+      </c>
       <c r="C812" t="s">
         <v>1091</v>
       </c>
       <c r="D812" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E812" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F812" t="s">
         <v>1106</v>
       </c>
-      <c r="I812" s="1" t="s">
-        <v>1025</v>
+      <c r="I812" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1109</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="B813" s="2"/>
       <c r="C813" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D813" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E813" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F813" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="I813" s="1" t="s">
-        <v>23</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.25">
@@ -19013,16 +19013,16 @@
         <v>1077</v>
       </c>
       <c r="D814" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E814" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F814" t="s">
         <v>1110</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.25">
@@ -19033,16 +19033,16 @@
         <v>1077</v>
       </c>
       <c r="D815" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E815" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F815" t="s">
         <v>1110</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.25">
@@ -19053,16 +19053,16 @@
         <v>1077</v>
       </c>
       <c r="D816" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E816" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F816" t="s">
         <v>1110</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.25">
@@ -19073,16 +19073,16 @@
         <v>1077</v>
       </c>
       <c r="D817" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E817" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F817" t="s">
         <v>1110</v>
       </c>
-      <c r="I817" t="s">
-        <v>782</v>
+      <c r="I817" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.25">
@@ -19093,50 +19093,50 @@
         <v>1077</v>
       </c>
       <c r="D818" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E818" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F818" t="s">
         <v>1110</v>
       </c>
-      <c r="I818" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="819" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I818" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1109</v>
       </c>
-      <c r="G819" t="s">
+      <c r="C819" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I819" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G820" t="s">
         <v>1088</v>
       </c>
-      <c r="H819" t="s">
+      <c r="H820" t="s">
         <v>1089</v>
       </c>
-      <c r="I819" s="4" t="s">
+      <c r="I820" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="820" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C820" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D820" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E820" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F820" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I820" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="821" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19147,16 +19147,16 @@
         <v>1077</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F821" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I821" s="3" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="822" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19167,16 +19167,16 @@
         <v>1077</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F822" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I822" s="3" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="823" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19187,16 +19187,16 @@
         <v>1077</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F823" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I823" s="3" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="824" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19207,16 +19207,16 @@
         <v>1077</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F824" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="I824" s="2" t="s">
-        <v>782</v>
+      <c r="I824" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="825" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19227,50 +19227,50 @@
         <v>1077</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F825" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="I825" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="826" spans="1:9" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="I825" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="G826" s="2" t="s">
+      <c r="C826" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G827" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H826" s="2" t="s">
+      <c r="H827" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="I826" s="4" t="s">
+      <c r="I827" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C827" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D827" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E827" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F827" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I827" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.25">
@@ -19281,16 +19281,16 @@
         <v>1077</v>
       </c>
       <c r="D828" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E828" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F828" t="s">
         <v>1112</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
@@ -19301,132 +19301,132 @@
         <v>1077</v>
       </c>
       <c r="D829" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E829" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F829" t="s">
         <v>1112</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1111</v>
       </c>
-      <c r="B830" s="2"/>
       <c r="C830" t="s">
         <v>1077</v>
       </c>
       <c r="D830" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E830" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F830" t="s">
         <v>1112</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>517</v>
+        <v>371</v>
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1111</v>
       </c>
-      <c r="B831" t="s">
-        <v>20</v>
-      </c>
+      <c r="B831" s="2"/>
       <c r="C831" t="s">
         <v>1077</v>
       </c>
       <c r="D831" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E831" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F831" t="s">
         <v>1112</v>
       </c>
-      <c r="I831" t="s">
-        <v>782</v>
+      <c r="I831" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1111</v>
       </c>
-      <c r="B832" s="2"/>
+      <c r="B832" t="s">
+        <v>20</v>
+      </c>
       <c r="C832" t="s">
         <v>1077</v>
       </c>
       <c r="D832" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E832" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F832" t="s">
         <v>1112</v>
       </c>
-      <c r="I832" s="1" t="s">
-        <v>1025</v>
+      <c r="I832" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1111</v>
       </c>
+      <c r="B833" s="2"/>
       <c r="C833" t="s">
-        <v>1113</v>
+        <v>1077</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1087</v>
       </c>
       <c r="E833" t="s">
-        <v>463</v>
+        <v>1074</v>
       </c>
       <c r="F833" t="s">
         <v>1112</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="834" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1111</v>
       </c>
-      <c r="G834" t="s">
+      <c r="C834" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E834" t="s">
+        <v>463</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I834" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G835" t="s">
         <v>1088</v>
       </c>
-      <c r="H834" t="s">
+      <c r="H835" t="s">
         <v>1089</v>
       </c>
-      <c r="I834" s="4" t="s">
+      <c r="I835" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C835" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D835" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E835" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F835" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I835" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
@@ -19437,16 +19437,16 @@
         <v>1091</v>
       </c>
       <c r="D836" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E836" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F836" t="s">
         <v>1116</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
@@ -19457,120 +19457,120 @@
         <v>1091</v>
       </c>
       <c r="D837" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E837" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F837" t="s">
         <v>1116</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1115</v>
       </c>
-      <c r="B838" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C838" t="s">
         <v>1091</v>
       </c>
       <c r="D838" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E838" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F838" t="s">
         <v>1116</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>1117</v>
+        <v>371</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1115</v>
       </c>
+      <c r="B839" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C839" t="s">
         <v>1091</v>
       </c>
+      <c r="D839" t="s">
+        <v>1096</v>
+      </c>
       <c r="E839" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F839" t="s">
         <v>1116</v>
       </c>
-      <c r="I839" t="s">
-        <v>1104</v>
+      <c r="I839" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1115</v>
       </c>
-      <c r="B840" t="s">
-        <v>20</v>
-      </c>
       <c r="C840" t="s">
         <v>1091</v>
       </c>
-      <c r="D840" t="s">
-        <v>1097</v>
-      </c>
       <c r="E840" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F840" t="s">
         <v>1116</v>
       </c>
       <c r="I840" t="s">
-        <v>886</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1115</v>
       </c>
-      <c r="B841" s="2"/>
+      <c r="B841" t="s">
+        <v>20</v>
+      </c>
       <c r="C841" t="s">
         <v>1091</v>
       </c>
       <c r="D841" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E841" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F841" t="s">
         <v>1116</v>
       </c>
-      <c r="I841" s="1" t="s">
-        <v>1118</v>
+      <c r="I841" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1119</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="B842" s="2"/>
       <c r="C842" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D842" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E842" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F842" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>75</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
@@ -19581,16 +19581,16 @@
         <v>1077</v>
       </c>
       <c r="D843" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E843" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F843" t="s">
         <v>1120</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
@@ -19601,115 +19601,115 @@
         <v>1077</v>
       </c>
       <c r="D844" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E844" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F844" t="s">
         <v>1120</v>
       </c>
       <c r="I844" s="1" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1119</v>
       </c>
-      <c r="B845" s="2"/>
       <c r="C845" t="s">
         <v>1077</v>
       </c>
       <c r="D845" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E845" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F845" t="s">
         <v>1120</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>518</v>
+        <v>371</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1119</v>
       </c>
-      <c r="B846" t="s">
-        <v>20</v>
-      </c>
+      <c r="B846" s="2"/>
       <c r="C846" t="s">
         <v>1077</v>
       </c>
       <c r="D846" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E846" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F846" t="s">
         <v>1120</v>
       </c>
-      <c r="I846" t="s">
-        <v>782</v>
+      <c r="I846" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1119</v>
       </c>
-      <c r="B847" s="2"/>
+      <c r="B847" t="s">
+        <v>20</v>
+      </c>
       <c r="C847" t="s">
         <v>1077</v>
       </c>
       <c r="D847" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E847" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F847" t="s">
         <v>1120</v>
       </c>
-      <c r="I847" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="848" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I847" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1119</v>
       </c>
-      <c r="G848" t="s">
+      <c r="B848" s="2"/>
+      <c r="C848" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I848" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G849" t="s">
         <v>1088</v>
       </c>
-      <c r="H848" t="s">
+      <c r="H849" t="s">
         <v>1089</v>
       </c>
-      <c r="I848" s="4" t="s">
+      <c r="I849" s="4" t="s">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C849" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D849" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E849" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F849" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I849" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
@@ -19720,16 +19720,16 @@
         <v>1077</v>
       </c>
       <c r="D850" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E850" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F850" t="s">
         <v>1122</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
@@ -19740,16 +19740,16 @@
         <v>1077</v>
       </c>
       <c r="D851" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E851" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F851" t="s">
         <v>1122</v>
       </c>
       <c r="I851" s="1" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
@@ -19760,16 +19760,16 @@
         <v>1077</v>
       </c>
       <c r="D852" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E852" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F852" t="s">
         <v>1122</v>
       </c>
       <c r="I852" s="1" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
@@ -19780,16 +19780,16 @@
         <v>1077</v>
       </c>
       <c r="D853" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E853" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F853" t="s">
         <v>1122</v>
       </c>
-      <c r="I853" t="s">
-        <v>782</v>
+      <c r="I853" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -19800,50 +19800,50 @@
         <v>1077</v>
       </c>
       <c r="D854" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E854" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F854" t="s">
         <v>1122</v>
       </c>
-      <c r="I854" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="855" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I854" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1121</v>
       </c>
-      <c r="G855" t="s">
+      <c r="C855" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I855" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G856" t="s">
         <v>1088</v>
       </c>
-      <c r="H855" t="s">
+      <c r="H856" t="s">
         <v>1089</v>
       </c>
-      <c r="I855" s="4" t="s">
+      <c r="I856" s="4" t="s">
         <v>1465</v>
-      </c>
-    </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D856" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E856" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F856" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I856" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
@@ -19854,16 +19854,16 @@
         <v>1124</v>
       </c>
       <c r="D857" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E857" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F857" t="s">
         <v>1125</v>
       </c>
-      <c r="I857" s="1" t="s">
-        <v>153</v>
+      <c r="I857" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
@@ -19874,98 +19874,101 @@
         <v>1124</v>
       </c>
       <c r="D858" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E858" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F858" t="s">
         <v>1125</v>
       </c>
-      <c r="I858" t="s">
-        <v>358</v>
+      <c r="I858" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1123</v>
       </c>
-      <c r="B859" s="2"/>
       <c r="C859" t="s">
         <v>1124</v>
       </c>
       <c r="D859" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E859" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F859" t="s">
         <v>1125</v>
       </c>
       <c r="I859" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1123</v>
       </c>
-      <c r="B860" t="s">
-        <v>20</v>
-      </c>
+      <c r="B860" s="2"/>
       <c r="C860" t="s">
         <v>1124</v>
       </c>
       <c r="D860" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E860" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F860" t="s">
         <v>1125</v>
       </c>
       <c r="I860" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1123</v>
       </c>
-      <c r="B861" s="2"/>
+      <c r="B861" t="s">
+        <v>20</v>
+      </c>
       <c r="C861" t="s">
         <v>1124</v>
       </c>
       <c r="D861" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E861" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F861" t="s">
         <v>1125</v>
       </c>
       <c r="I861" t="s">
-        <v>1126</v>
+        <v>436</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1123</v>
       </c>
+      <c r="B862" s="2"/>
       <c r="C862" t="s">
-        <v>1127</v>
+        <v>1124</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1098</v>
       </c>
       <c r="E862" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F862" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I862" t="s">
-        <v>35</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
@@ -19973,16 +19976,16 @@
         <v>1123</v>
       </c>
       <c r="C863" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E863" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F863" t="s">
         <v>1128</v>
       </c>
-      <c r="I863" s="1" t="s">
-        <v>304</v>
+      <c r="I863" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -19990,89 +19993,89 @@
         <v>1123</v>
       </c>
       <c r="C864" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E864" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F864" t="s">
         <v>1128</v>
       </c>
-      <c r="I864" t="s">
-        <v>1131</v>
+      <c r="I864" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1123</v>
       </c>
-      <c r="B865" s="2"/>
       <c r="C865" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E865" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F865" t="s">
         <v>1128</v>
       </c>
       <c r="I865" t="s">
-        <v>432</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1123</v>
       </c>
-      <c r="B866" t="s">
-        <v>20</v>
-      </c>
+      <c r="B866" s="2"/>
       <c r="C866" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E866" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F866" t="s">
         <v>1128</v>
       </c>
       <c r="I866" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1123</v>
       </c>
-      <c r="B867" s="2"/>
+      <c r="B867" t="s">
+        <v>20</v>
+      </c>
       <c r="C867" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E867" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F867" t="s">
         <v>1128</v>
       </c>
       <c r="I867" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B868" s="2"/>
+      <c r="C868" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I868" t="s">
         <v>1075</v>
-      </c>
-    </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E869" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F869" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I869" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
@@ -20080,16 +20083,16 @@
         <v>1135</v>
       </c>
       <c r="C870" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E870" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F870" t="s">
         <v>1137</v>
       </c>
-      <c r="I870" s="1" t="s">
-        <v>335</v>
+      <c r="I870" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
@@ -20097,16 +20100,16 @@
         <v>1135</v>
       </c>
       <c r="C871" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E871" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F871" t="s">
         <v>1137</v>
       </c>
-      <c r="I871" t="s">
-        <v>1140</v>
+      <c r="I871" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
@@ -20114,36 +20117,33 @@
         <v>1135</v>
       </c>
       <c r="C872" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E872" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F872" t="s">
         <v>1137</v>
       </c>
       <c r="I872" t="s">
-        <v>434</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C873" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D873" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E873" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F873" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="I873" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
@@ -20154,16 +20154,16 @@
         <v>1143</v>
       </c>
       <c r="D874" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E874" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F874" t="s">
         <v>1145</v>
       </c>
-      <c r="I874" s="1" t="s">
-        <v>1147</v>
+      <c r="I874" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
@@ -20174,16 +20174,16 @@
         <v>1143</v>
       </c>
       <c r="D875" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E875" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F875" t="s">
         <v>1145</v>
       </c>
-      <c r="I875" t="s">
-        <v>1131</v>
+      <c r="I875" s="1" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
@@ -20194,36 +20194,36 @@
         <v>1143</v>
       </c>
       <c r="D876" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E876" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F876" t="s">
         <v>1145</v>
       </c>
       <c r="I876" t="s">
-        <v>462</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C877" t="s">
         <v>1143</v>
       </c>
       <c r="D877" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="E877" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F877" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I877" s="1" t="s">
-        <v>92</v>
+        <v>1145</v>
+      </c>
+      <c r="I877" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
@@ -20234,16 +20234,16 @@
         <v>1143</v>
       </c>
       <c r="D878" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E878" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F878" t="s">
         <v>1151</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
@@ -20254,16 +20254,16 @@
         <v>1143</v>
       </c>
       <c r="D879" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E879" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F879" t="s">
         <v>1151</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>1152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
@@ -20274,36 +20274,36 @@
         <v>1143</v>
       </c>
       <c r="D880" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E880" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F880" t="s">
         <v>1151</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>570</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C881" t="s">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="D881" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E881" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F881" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>1156</v>
+        <v>570</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -20314,16 +20314,16 @@
         <v>1077</v>
       </c>
       <c r="D882" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E882" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F882" t="s">
         <v>1155</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
@@ -20334,16 +20334,16 @@
         <v>1077</v>
       </c>
       <c r="D883" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E883" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F883" t="s">
         <v>1155</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
@@ -20354,50 +20354,50 @@
         <v>1077</v>
       </c>
       <c r="D884" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E884" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F884" t="s">
         <v>1155</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="885" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1153</v>
       </c>
-      <c r="G885" t="s">
+      <c r="C885" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I885" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G886" t="s">
         <v>1088</v>
       </c>
-      <c r="H885" t="s">
+      <c r="H886" t="s">
         <v>1162</v>
       </c>
-      <c r="I885" s="4" t="s">
+      <c r="I886" s="4" t="s">
         <v>1466</v>
-      </c>
-    </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C886" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D886" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E886" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F886" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I886" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
@@ -20408,16 +20408,16 @@
         <v>1077</v>
       </c>
       <c r="D887" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E887" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F887" t="s">
         <v>1164</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
@@ -20428,16 +20428,16 @@
         <v>1077</v>
       </c>
       <c r="D888" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E888" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F888" t="s">
         <v>1164</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>1165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
@@ -20448,50 +20448,50 @@
         <v>1077</v>
       </c>
       <c r="D889" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E889" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F889" t="s">
         <v>1164</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="890" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1163</v>
       </c>
-      <c r="G890" t="s">
+      <c r="C890" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I890" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G891" t="s">
         <v>1088</v>
       </c>
-      <c r="H890" t="s">
+      <c r="H891" t="s">
         <v>1162</v>
       </c>
-      <c r="I890" s="4" t="s">
+      <c r="I891" s="4" t="s">
         <v>1466</v>
-      </c>
-    </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C891" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D891" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E891" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F891" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I891" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.25">
@@ -20502,16 +20502,16 @@
         <v>1167</v>
       </c>
       <c r="D892" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E892" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F892" t="s">
         <v>1168</v>
       </c>
-      <c r="I892" s="1" t="s">
-        <v>171</v>
+      <c r="I892" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
@@ -20522,39 +20522,36 @@
         <v>1167</v>
       </c>
       <c r="D893" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E893" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F893" t="s">
         <v>1168</v>
       </c>
-      <c r="I893" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="894" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I893" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1166</v>
       </c>
-      <c r="B894"/>
       <c r="C894" t="s">
         <v>1167</v>
       </c>
       <c r="D894" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E894" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F894" t="s">
         <v>1168</v>
       </c>
-      <c r="G894"/>
-      <c r="H894"/>
       <c r="I894" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
     </row>
     <row r="895" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20563,19 +20560,21 @@
       </c>
       <c r="B895"/>
       <c r="C895" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D895"/>
+        <v>1167</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1149</v>
+      </c>
       <c r="E895" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F895" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G895"/>
       <c r="H895"/>
       <c r="I895" t="s">
-        <v>1065</v>
+        <v>412</v>
       </c>
     </row>
     <row r="896" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20584,19 +20583,19 @@
       </c>
       <c r="B896"/>
       <c r="C896" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D896"/>
       <c r="E896" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F896" t="s">
         <v>1170</v>
       </c>
       <c r="G896"/>
       <c r="H896"/>
-      <c r="I896" s="1" t="s">
-        <v>139</v>
+      <c r="I896" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="897" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20605,19 +20604,19 @@
       </c>
       <c r="B897"/>
       <c r="C897" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D897"/>
       <c r="E897" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F897" t="s">
         <v>1170</v>
       </c>
       <c r="G897"/>
       <c r="H897"/>
-      <c r="I897" t="s">
-        <v>1173</v>
+      <c r="I897" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20626,11 +20625,11 @@
       </c>
       <c r="B898"/>
       <c r="C898" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D898"/>
       <c r="E898" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F898" t="s">
         <v>1170</v>
@@ -20638,62 +20637,66 @@
       <c r="G898"/>
       <c r="H898"/>
       <c r="I898" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B899"/>
+      <c r="C899" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D899"/>
+      <c r="E899" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G899"/>
+      <c r="H899"/>
+      <c r="I899" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="899" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="900" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C900" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E900" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F900" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I900" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
+    <row r="900" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="901" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B901" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C901" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F901" s="2" t="s">
         <v>1403</v>
       </c>
       <c r="I901" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>1398</v>
       </c>
+      <c r="B902" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C902" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F902" s="2" t="s">
         <v>1403</v>
       </c>
       <c r="I902" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20701,28 +20704,22 @@
         <v>1398</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D903" s="2" t="s">
-        <v>1189</v>
+        <v>1401</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F903" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="I903" s="3" t="s">
-        <v>1191</v>
+      <c r="I903" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B904" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C904" s="2" t="s">
         <v>1402</v>
       </c>
@@ -20730,76 +20727,79 @@
         <v>1189</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F904" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="I904" s="2" t="s">
-        <v>1193</v>
+      <c r="I904" s="3" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
-        <v>1404</v>
+        <v>1398</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1406</v>
+        <v>1189</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I905" s="2" t="s">
-        <v>462</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B906" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C906" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F906" s="2" t="s">
         <v>1409</v>
       </c>
       <c r="I906" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>1404</v>
       </c>
+      <c r="B907" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C907" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F907" s="2" t="s">
         <v>1409</v>
       </c>
       <c r="I907" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20810,25 +20810,22 @@
         <v>1405</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F908" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="I908" s="3" t="s">
-        <v>1191</v>
+      <c r="I908" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B909" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C909" s="2" t="s">
         <v>1405</v>
       </c>
@@ -20836,18 +20833,18 @@
         <v>1421</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F909" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="I909" s="2" t="s">
-        <v>1193</v>
+      <c r="I909" s="3" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B910" s="2" t="s">
         <v>20</v>
@@ -20856,16 +20853,16 @@
         <v>1405</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I910" s="3" t="s">
-        <v>570</v>
+        <v>1409</v>
+      </c>
+      <c r="I910" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20879,36 +20876,39 @@
         <v>1405</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F911" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I911" s="2" t="s">
-        <v>856</v>
+      <c r="I911" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>1410</v>
       </c>
+      <c r="B912" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C912" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F912" s="2" t="s">
         <v>1411</v>
       </c>
       <c r="I912" s="2" t="s">
-        <v>987</v>
+        <v>856</v>
       </c>
     </row>
     <row r="913" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20919,25 +20919,22 @@
         <v>1405</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F913" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I913" s="3" t="s">
-        <v>1249</v>
+      <c r="I913" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="914" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="B914" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C914" s="2" t="s">
         <v>1405</v>
       </c>
@@ -20945,18 +20942,18 @@
         <v>1421</v>
       </c>
       <c r="E914" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F914" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I914" s="2" t="s">
-        <v>1224</v>
+      <c r="I914" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="915" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="B915" s="2" t="s">
         <v>20</v>
@@ -20965,16 +20962,16 @@
         <v>1405</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="E915" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F915" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I915" s="3" t="s">
-        <v>570</v>
+        <v>1411</v>
+      </c>
+      <c r="I915" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="916" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20988,36 +20985,39 @@
         <v>1405</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E916" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F916" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I916" s="2" t="s">
-        <v>856</v>
+      <c r="I916" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="917" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>1419</v>
       </c>
+      <c r="B917" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C917" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F917" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="I917" s="2" t="s">
-        <v>987</v>
+        <v>856</v>
       </c>
     </row>
     <row r="918" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21028,25 +21028,22 @@
         <v>1405</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E918" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F918" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I918" s="3" t="s">
-        <v>1249</v>
+      <c r="I918" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="919" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="B919" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C919" s="2" t="s">
         <v>1405</v>
       </c>
@@ -21054,76 +21051,79 @@
         <v>1421</v>
       </c>
       <c r="E919" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F919" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I919" s="2" t="s">
-        <v>1224</v>
+      <c r="I919" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="920" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
-        <v>1415</v>
+        <v>1419</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="E920" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F920" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I920" s="3" t="s">
-        <v>533</v>
+        <v>1420</v>
+      </c>
+      <c r="I920" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="921" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B921" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C921" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F921" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I921" s="2" t="s">
-        <v>835</v>
+      <c r="I921" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="922" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>1415</v>
       </c>
+      <c r="B922" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C922" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F922" s="2" t="s">
         <v>1416</v>
       </c>
       <c r="I922" s="2" t="s">
-        <v>987</v>
+        <v>835</v>
       </c>
     </row>
     <row r="923" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21131,28 +21131,25 @@
         <v>1415</v>
       </c>
       <c r="C923" s="2" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1189</v>
+        <v>1414</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F923" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I923" s="3" t="s">
-        <v>1249</v>
+      <c r="I923" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="924" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B924" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C924" s="2" t="s">
         <v>1113</v>
       </c>
@@ -21160,76 +21157,79 @@
         <v>1189</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I924" s="2" t="s">
-        <v>1224</v>
+      <c r="I924" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="925" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C925" s="2" t="s">
-        <v>1077</v>
+        <v>1113</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1412</v>
+        <v>1189</v>
       </c>
       <c r="E925" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F925" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I925" s="3" t="s">
-        <v>533</v>
+        <v>1416</v>
+      </c>
+      <c r="I925" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="926" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B926" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C926" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E926" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F926" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I926" s="2" t="s">
-        <v>835</v>
+      <c r="I926" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="927" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>1417</v>
       </c>
+      <c r="B927" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C927" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E927" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F927" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="I927" s="2" t="s">
-        <v>987</v>
+        <v>835</v>
       </c>
     </row>
     <row r="928" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21237,28 +21237,25 @@
         <v>1417</v>
       </c>
       <c r="C928" s="2" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1189</v>
+        <v>1414</v>
       </c>
       <c r="E928" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F928" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I928" s="3" t="s">
-        <v>1249</v>
+      <c r="I928" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="929" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B929" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C929" s="2" t="s">
         <v>1113</v>
       </c>
@@ -21266,53 +21263,51 @@
         <v>1189</v>
       </c>
       <c r="E929" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F929" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I929" s="2" t="s">
+      <c r="I929" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C930" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F930" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I930" s="2" t="s">
         <v>1224</v>
-      </c>
-    </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A930" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B930" s="2"/>
-      <c r="C930" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D930" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E930" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F930" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G930" s="2"/>
-      <c r="H930" s="2"/>
-      <c r="I930" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B931" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B931" s="2"/>
       <c r="C931" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E931" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F931" s="2" t="s">
         <v>1423</v>
@@ -21320,22 +21315,24 @@
       <c r="G931" s="2"/>
       <c r="H931" s="2"/>
       <c r="I931" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B932" s="2"/>
+      <c r="B932" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C932" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E932" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F932" s="2" t="s">
         <v>1423</v>
@@ -21343,7 +21340,7 @@
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
       <c r="I932" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
@@ -21355,27 +21352,25 @@
         <v>1424</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F933" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
-      <c r="I933" s="3" t="s">
-        <v>1191</v>
+      <c r="I933" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B934" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B934" s="2"/>
       <c r="C934" s="2" t="s">
         <v>1424</v>
       </c>
@@ -21383,32 +21378,40 @@
         <v>1421</v>
       </c>
       <c r="E934" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F934" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
-      <c r="I934" s="2" t="s">
+      <c r="I934" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G935" s="2"/>
+      <c r="H935" s="2"/>
+      <c r="I935" s="2" t="s">
         <v>1193</v>
-      </c>
-    </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C936" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E936" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F936" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I936" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.25">
@@ -21416,16 +21419,16 @@
         <v>1175</v>
       </c>
       <c r="C937" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E937" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F937" t="s">
         <v>1177</v>
       </c>
-      <c r="I937" s="1" t="s">
-        <v>304</v>
+      <c r="I937" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.25">
@@ -21433,36 +21436,33 @@
         <v>1175</v>
       </c>
       <c r="C938" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E938" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F938" t="s">
         <v>1177</v>
       </c>
-      <c r="I938" t="s">
-        <v>352</v>
+      <c r="I938" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1175</v>
       </c>
-      <c r="B939" t="s">
-        <v>20</v>
-      </c>
       <c r="C939" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E939" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F939" t="s">
         <v>1177</v>
       </c>
       <c r="I939" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.25">
@@ -21473,33 +21473,36 @@
         <v>20</v>
       </c>
       <c r="C940" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E940" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F940" t="s">
         <v>1177</v>
       </c>
       <c r="I940" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1175</v>
       </c>
+      <c r="B941" t="s">
+        <v>20</v>
+      </c>
       <c r="C941" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E941" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F941" t="s">
         <v>1177</v>
       </c>
       <c r="I941" t="s">
-        <v>955</v>
+        <v>436</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
@@ -21507,65 +21510,59 @@
         <v>1175</v>
       </c>
       <c r="C942" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E942" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F942" t="s">
         <v>1177</v>
       </c>
       <c r="I942" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1175</v>
       </c>
-      <c r="B943" t="s">
-        <v>20</v>
-      </c>
       <c r="C943" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E943" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F943" t="s">
         <v>1177</v>
       </c>
       <c r="I943" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1175</v>
       </c>
+      <c r="B944" t="s">
+        <v>20</v>
+      </c>
       <c r="C944" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E944" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F944" t="s">
         <v>1177</v>
       </c>
       <c r="I944" t="s">
-        <v>1191</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1175</v>
       </c>
-      <c r="B945" t="s">
-        <v>20</v>
-      </c>
       <c r="C945" t="s">
         <v>1188</v>
       </c>
@@ -21573,33 +21570,36 @@
         <v>1189</v>
       </c>
       <c r="E945" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F945" t="s">
         <v>1177</v>
       </c>
       <c r="I945" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1194</v>
+        <v>1175</v>
+      </c>
+      <c r="B946" t="s">
+        <v>20</v>
       </c>
       <c r="C946" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D946" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="E946" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F946" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="I946" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.25">
@@ -21610,16 +21610,16 @@
         <v>1195</v>
       </c>
       <c r="D947" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E947" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F947" t="s">
         <v>1197</v>
       </c>
-      <c r="I947" s="1" t="s">
-        <v>153</v>
+      <c r="I947" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.25">
@@ -21630,39 +21630,36 @@
         <v>1195</v>
       </c>
       <c r="D948" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E948" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F948" t="s">
         <v>1197</v>
       </c>
-      <c r="I948" t="s">
-        <v>1173</v>
+      <c r="I948" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1194</v>
       </c>
-      <c r="B949" t="s">
-        <v>20</v>
-      </c>
       <c r="C949" t="s">
         <v>1195</v>
       </c>
       <c r="D949" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E949" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F949" t="s">
         <v>1197</v>
       </c>
       <c r="I949" t="s">
-        <v>419</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.25">
@@ -21676,36 +21673,39 @@
         <v>1195</v>
       </c>
       <c r="D950" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E950" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F950" t="s">
         <v>1197</v>
       </c>
       <c r="I950" t="s">
-        <v>702</v>
+        <v>419</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1194</v>
       </c>
+      <c r="B951" t="s">
+        <v>20</v>
+      </c>
       <c r="C951" t="s">
         <v>1195</v>
       </c>
       <c r="D951" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E951" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F951" t="s">
         <v>1197</v>
       </c>
       <c r="I951" t="s">
-        <v>955</v>
+        <v>702</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.25">
@@ -21716,68 +21716,65 @@
         <v>1195</v>
       </c>
       <c r="D952" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E952" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F952" t="s">
         <v>1197</v>
       </c>
       <c r="I952" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1194</v>
       </c>
-      <c r="B953" t="s">
-        <v>20</v>
-      </c>
       <c r="C953" t="s">
         <v>1195</v>
       </c>
       <c r="D953" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E953" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F953" t="s">
         <v>1197</v>
       </c>
       <c r="I953" t="s">
-        <v>1075</v>
+        <v>983</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1194</v>
       </c>
+      <c r="B954" t="s">
+        <v>20</v>
+      </c>
       <c r="C954" t="s">
         <v>1195</v>
       </c>
       <c r="D954" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E954" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F954" t="s">
         <v>1197</v>
       </c>
       <c r="I954" t="s">
-        <v>1191</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1194</v>
       </c>
-      <c r="B955" t="s">
-        <v>20</v>
-      </c>
       <c r="C955" t="s">
         <v>1195</v>
       </c>
@@ -21785,50 +21782,53 @@
         <v>1205</v>
       </c>
       <c r="E955" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F955" t="s">
         <v>1197</v>
       </c>
       <c r="I955" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="B956" t="s">
         <v>20</v>
       </c>
       <c r="C956" t="s">
-        <v>252</v>
+        <v>1195</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1205</v>
       </c>
       <c r="E956" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I956" s="1" t="s">
-        <v>1207</v>
+        <v>1192</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I956" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1208</v>
+        <v>1206</v>
+      </c>
+      <c r="B957" t="s">
+        <v>20</v>
       </c>
       <c r="C957" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D957" t="s">
-        <v>1209</v>
+        <v>252</v>
       </c>
       <c r="E957" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F957" t="s">
-        <v>1210</v>
+        <v>1070</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>1080</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.25">
@@ -21839,16 +21839,16 @@
         <v>1077</v>
       </c>
       <c r="D958" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E958" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F958" t="s">
         <v>1210</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>1212</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.25">
@@ -21859,39 +21859,36 @@
         <v>1077</v>
       </c>
       <c r="D959" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E959" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F959" t="s">
         <v>1210</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1208</v>
       </c>
-      <c r="B960" t="s">
-        <v>20</v>
-      </c>
       <c r="C960" t="s">
         <v>1077</v>
       </c>
       <c r="D960" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E960" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F960" t="s">
         <v>1210</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.25">
@@ -21905,36 +21902,39 @@
         <v>1077</v>
       </c>
       <c r="D961" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E961" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F961" t="s">
         <v>1210</v>
       </c>
-      <c r="I961" t="s">
-        <v>849</v>
+      <c r="I961" s="1" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1208</v>
       </c>
+      <c r="B962" t="s">
+        <v>20</v>
+      </c>
       <c r="C962" t="s">
         <v>1077</v>
       </c>
       <c r="D962" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E962" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F962" t="s">
         <v>1210</v>
       </c>
       <c r="I962" t="s">
-        <v>955</v>
+        <v>849</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.25">
@@ -21945,68 +21945,65 @@
         <v>1077</v>
       </c>
       <c r="D963" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E963" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F963" t="s">
         <v>1210</v>
       </c>
       <c r="I963" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1208</v>
       </c>
-      <c r="B964" t="s">
-        <v>20</v>
-      </c>
       <c r="C964" t="s">
         <v>1077</v>
       </c>
       <c r="D964" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E964" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F964" t="s">
         <v>1210</v>
       </c>
-      <c r="I964" s="1" t="s">
-        <v>1221</v>
+      <c r="I964" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1208</v>
       </c>
+      <c r="B965" t="s">
+        <v>20</v>
+      </c>
       <c r="C965" t="s">
         <v>1077</v>
       </c>
       <c r="D965" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E965" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F965" t="s">
         <v>1210</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1208</v>
       </c>
-      <c r="B966" t="s">
-        <v>20</v>
-      </c>
       <c r="C966" t="s">
         <v>1077</v>
       </c>
@@ -22014,59 +22011,59 @@
         <v>1222</v>
       </c>
       <c r="E966" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F966" t="s">
         <v>1210</v>
       </c>
-      <c r="I966" t="s">
-        <v>1224</v>
+      <c r="I966" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="B967" t="s">
         <v>20</v>
       </c>
       <c r="C967" t="s">
-        <v>1226</v>
+        <v>1077</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1222</v>
       </c>
       <c r="E967" t="s">
-        <v>958</v>
+        <v>1192</v>
+      </c>
+      <c r="F967" t="s">
+        <v>1210</v>
       </c>
       <c r="I967" t="s">
-        <v>955</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1227</v>
+        <v>1225</v>
+      </c>
+      <c r="B968" t="s">
+        <v>20</v>
       </c>
       <c r="C968" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D968" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E968" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F968" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I968" s="1" t="s">
-        <v>1231</v>
+        <v>958</v>
+      </c>
+      <c r="I968" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1227</v>
       </c>
-      <c r="B969" t="s">
-        <v>20</v>
-      </c>
       <c r="C969" t="s">
         <v>1228</v>
       </c>
@@ -22074,33 +22071,36 @@
         <v>1229</v>
       </c>
       <c r="E969" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F969" t="s">
         <v>1230</v>
       </c>
-      <c r="I969" t="s">
-        <v>1224</v>
+      <c r="I969" s="1" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1232</v>
+        <v>1227</v>
+      </c>
+      <c r="B970" t="s">
+        <v>20</v>
       </c>
       <c r="C970" t="s">
-        <v>1077</v>
+        <v>1228</v>
       </c>
       <c r="D970" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="E970" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F970" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I970" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
+      </c>
+      <c r="I970" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.25">
@@ -22111,16 +22111,16 @@
         <v>1077</v>
       </c>
       <c r="D971" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E971" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F971" t="s">
         <v>1233</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.25">
@@ -22131,39 +22131,36 @@
         <v>1077</v>
       </c>
       <c r="D972" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E972" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F972" t="s">
         <v>1233</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1232</v>
       </c>
-      <c r="B973" t="s">
-        <v>20</v>
-      </c>
       <c r="C973" t="s">
         <v>1077</v>
       </c>
       <c r="D973" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E973" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F973" t="s">
         <v>1233</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>541</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.25">
@@ -22177,36 +22174,39 @@
         <v>1077</v>
       </c>
       <c r="D974" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E974" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F974" t="s">
         <v>1233</v>
       </c>
-      <c r="I974" t="s">
-        <v>835</v>
+      <c r="I974" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1232</v>
       </c>
+      <c r="B975" t="s">
+        <v>20</v>
+      </c>
       <c r="C975" t="s">
         <v>1077</v>
       </c>
       <c r="D975" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E975" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F975" t="s">
         <v>1233</v>
       </c>
       <c r="I975" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.25">
@@ -22217,68 +22217,65 @@
         <v>1077</v>
       </c>
       <c r="D976" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E976" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F976" t="s">
         <v>1233</v>
       </c>
       <c r="I976" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1232</v>
       </c>
-      <c r="B977" t="s">
-        <v>20</v>
-      </c>
       <c r="C977" t="s">
         <v>1077</v>
       </c>
       <c r="D977" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E977" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F977" t="s">
         <v>1233</v>
       </c>
-      <c r="I977" s="1" t="s">
-        <v>1221</v>
+      <c r="I977" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1232</v>
       </c>
+      <c r="B978" t="s">
+        <v>20</v>
+      </c>
       <c r="C978" t="s">
         <v>1077</v>
       </c>
       <c r="D978" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E978" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F978" t="s">
         <v>1233</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1232</v>
       </c>
-      <c r="B979" t="s">
-        <v>20</v>
-      </c>
       <c r="C979" t="s">
         <v>1077</v>
       </c>
@@ -22286,33 +22283,36 @@
         <v>1222</v>
       </c>
       <c r="E979" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F979" t="s">
         <v>1233</v>
       </c>
-      <c r="I979" t="s">
-        <v>1238</v>
+      <c r="I979" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1239</v>
+        <v>1232</v>
+      </c>
+      <c r="B980" t="s">
+        <v>20</v>
       </c>
       <c r="C980" t="s">
         <v>1077</v>
       </c>
       <c r="D980" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
       <c r="E980" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F980" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I980" s="1" t="s">
-        <v>90</v>
+        <v>1233</v>
+      </c>
+      <c r="I980" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.25">
@@ -22323,16 +22323,16 @@
         <v>1077</v>
       </c>
       <c r="D981" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E981" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F981" t="s">
         <v>1240</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>1241</v>
+        <v>90</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.25">
@@ -22343,16 +22343,16 @@
         <v>1077</v>
       </c>
       <c r="D982" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E982" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F982" t="s">
         <v>1240</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
@@ -22363,16 +22363,16 @@
         <v>1077</v>
       </c>
       <c r="D983" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E983" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F983" t="s">
         <v>1240</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>582</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
@@ -22383,16 +22383,16 @@
         <v>1077</v>
       </c>
       <c r="D984" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E984" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F984" t="s">
         <v>1240</v>
       </c>
-      <c r="I984" t="s">
-        <v>835</v>
+      <c r="I984" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.25">
@@ -22403,16 +22403,16 @@
         <v>1077</v>
       </c>
       <c r="D985" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E985" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F985" t="s">
         <v>1240</v>
       </c>
       <c r="I985" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.25">
@@ -22423,16 +22423,16 @@
         <v>1077</v>
       </c>
       <c r="D986" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E986" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F986" t="s">
         <v>1240</v>
       </c>
       <c r="I986" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.25">
@@ -22443,16 +22443,16 @@
         <v>1077</v>
       </c>
       <c r="D987" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E987" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F987" t="s">
         <v>1240</v>
       </c>
-      <c r="I987" s="1" t="s">
-        <v>1243</v>
+      <c r="I987" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.25">
@@ -22463,36 +22463,36 @@
         <v>1077</v>
       </c>
       <c r="D988" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E988" t="s">
-        <v>1244</v>
+        <v>1074</v>
       </c>
       <c r="F988" t="s">
         <v>1240</v>
       </c>
       <c r="I988" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F989" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I989" s="1" t="s">
         <v>1245</v>
-      </c>
-    </row>
-    <row r="989" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C989" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D989" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E989" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F989" s="2" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I989" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="990" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22503,16 +22503,16 @@
         <v>1077</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E990" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F990" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I990" s="3" t="s">
-        <v>1241</v>
+        <v>90</v>
       </c>
     </row>
     <row r="991" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22523,16 +22523,16 @@
         <v>1077</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E991" s="2" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F991" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I991" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="992" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22543,16 +22543,16 @@
         <v>1077</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F992" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I992" s="3" t="s">
-        <v>582</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="993" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22563,16 +22563,16 @@
         <v>1077</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E993" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F993" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="I993" s="2" t="s">
-        <v>835</v>
+      <c r="I993" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="994" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22583,16 +22583,16 @@
         <v>1077</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E994" s="2" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F994" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I994" s="2" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="995" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22603,16 +22603,16 @@
         <v>1077</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F995" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I995" s="2" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="996" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22623,16 +22623,16 @@
         <v>1077</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F996" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="I996" s="3" t="s">
-        <v>1243</v>
+      <c r="I996" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="997" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22643,36 +22643,36 @@
         <v>1077</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E997" s="2" t="s">
-        <v>1244</v>
+        <v>1074</v>
       </c>
       <c r="F997" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I997" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C998" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F998" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I998" s="3" t="s">
         <v>1245</v>
-      </c>
-    </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C998" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D998" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E998" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F998" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I998" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.25">
@@ -22683,16 +22683,16 @@
         <v>1195</v>
       </c>
       <c r="D999" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E999" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F999" t="s">
         <v>1247</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
@@ -22703,39 +22703,36 @@
         <v>1195</v>
       </c>
       <c r="D1000" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E1000" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1000" t="s">
         <v>1247</v>
       </c>
       <c r="I1000" s="1" t="s">
-        <v>1248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1246</v>
       </c>
-      <c r="B1001" t="s">
-        <v>20</v>
-      </c>
       <c r="C1001" t="s">
         <v>1195</v>
       </c>
       <c r="D1001" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E1001" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1001" t="s">
         <v>1247</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>605</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
@@ -22749,36 +22746,39 @@
         <v>1195</v>
       </c>
       <c r="D1002" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E1002" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1002" t="s">
         <v>1247</v>
       </c>
-      <c r="I1002" t="s">
-        <v>856</v>
+      <c r="I1002" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>1246</v>
       </c>
+      <c r="B1003" t="s">
+        <v>20</v>
+      </c>
       <c r="C1003" t="s">
         <v>1195</v>
       </c>
       <c r="D1003" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E1003" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1003" t="s">
         <v>1247</v>
       </c>
       <c r="I1003" t="s">
-        <v>955</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
@@ -22789,68 +22789,65 @@
         <v>1195</v>
       </c>
       <c r="D1004" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1004" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1004" t="s">
         <v>1247</v>
       </c>
       <c r="I1004" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>1246</v>
       </c>
-      <c r="B1005" t="s">
-        <v>20</v>
-      </c>
       <c r="C1005" t="s">
         <v>1195</v>
       </c>
       <c r="D1005" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E1005" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1005" t="s">
         <v>1247</v>
       </c>
-      <c r="I1005" s="1" t="s">
-        <v>1118</v>
+      <c r="I1005" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1246</v>
       </c>
+      <c r="B1006" t="s">
+        <v>20</v>
+      </c>
       <c r="C1006" t="s">
         <v>1195</v>
       </c>
       <c r="D1006" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E1006" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1006" t="s">
         <v>1247</v>
       </c>
       <c r="I1006" s="1" t="s">
-        <v>1249</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1246</v>
       </c>
-      <c r="B1007" t="s">
-        <v>20</v>
-      </c>
       <c r="C1007" t="s">
         <v>1195</v>
       </c>
@@ -22858,33 +22855,36 @@
         <v>1205</v>
       </c>
       <c r="E1007" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1007" t="s">
         <v>1247</v>
       </c>
-      <c r="I1007" t="s">
-        <v>1224</v>
+      <c r="I1007" s="1" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1250</v>
+        <v>1246</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>20</v>
       </c>
       <c r="C1008" t="s">
-        <v>1077</v>
+        <v>1195</v>
       </c>
       <c r="D1008" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E1008" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F1008" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I1008" s="1" t="s">
-        <v>23</v>
+        <v>1247</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
@@ -22895,16 +22895,16 @@
         <v>1077</v>
       </c>
       <c r="D1009" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E1009" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1009" t="s">
         <v>1251</v>
       </c>
       <c r="I1009" s="1" t="s">
-        <v>1252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
@@ -22915,39 +22915,36 @@
         <v>1077</v>
       </c>
       <c r="D1010" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E1010" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1010" t="s">
         <v>1251</v>
       </c>
       <c r="I1010" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1250</v>
       </c>
-      <c r="B1011" t="s">
-        <v>20</v>
-      </c>
       <c r="C1011" t="s">
         <v>1077</v>
       </c>
       <c r="D1011" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E1011" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1011" t="s">
         <v>1251</v>
       </c>
       <c r="I1011" s="1" t="s">
-        <v>548</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
@@ -22961,36 +22958,39 @@
         <v>1077</v>
       </c>
       <c r="D1012" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E1012" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1012" t="s">
         <v>1251</v>
       </c>
-      <c r="I1012" t="s">
-        <v>835</v>
+      <c r="I1012" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>1250</v>
       </c>
+      <c r="B1013" t="s">
+        <v>20</v>
+      </c>
       <c r="C1013" t="s">
         <v>1077</v>
       </c>
       <c r="D1013" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1013" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1013" t="s">
         <v>1251</v>
       </c>
       <c r="I1013" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
@@ -23001,68 +23001,65 @@
         <v>1077</v>
       </c>
       <c r="D1014" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E1014" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1014" t="s">
         <v>1251</v>
       </c>
       <c r="I1014" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>1250</v>
       </c>
-      <c r="B1015" t="s">
-        <v>20</v>
-      </c>
       <c r="C1015" t="s">
         <v>1077</v>
       </c>
       <c r="D1015" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E1015" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1015" t="s">
         <v>1251</v>
       </c>
-      <c r="I1015" s="1" t="s">
-        <v>1243</v>
+      <c r="I1015" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1250</v>
       </c>
+      <c r="B1016" t="s">
+        <v>20</v>
+      </c>
       <c r="C1016" t="s">
         <v>1077</v>
       </c>
       <c r="D1016" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E1016" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1016" t="s">
         <v>1251</v>
       </c>
       <c r="I1016" s="1" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1250</v>
       </c>
-      <c r="B1017" t="s">
-        <v>20</v>
-      </c>
       <c r="C1017" t="s">
         <v>1077</v>
       </c>
@@ -23070,70 +23067,73 @@
         <v>1222</v>
       </c>
       <c r="E1017" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1017" t="s">
         <v>1251</v>
       </c>
-      <c r="I1017" t="s">
-        <v>1224</v>
+      <c r="I1017" s="1" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="B1018" t="s">
         <v>20</v>
       </c>
       <c r="C1018" t="s">
-        <v>1226</v>
+        <v>1077</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1222</v>
       </c>
       <c r="E1018" t="s">
-        <v>958</v>
+        <v>1192</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>1251</v>
       </c>
       <c r="I1018" t="s">
-        <v>965</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C1019" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>1196</v>
+        <v>1255</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1226</v>
       </c>
       <c r="E1019" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F1019" t="s">
-        <v>1258</v>
+        <v>958</v>
       </c>
       <c r="I1019" t="s">
-        <v>35</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>1256</v>
       </c>
-      <c r="C1020" t="s">
+      <c r="C1020" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="D1020" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E1020" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1020" t="s">
         <v>1258</v>
       </c>
-      <c r="I1020" s="1" t="s">
-        <v>139</v>
+      <c r="I1020" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
@@ -23144,39 +23144,36 @@
         <v>1257</v>
       </c>
       <c r="D1021" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E1021" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1021" t="s">
         <v>1258</v>
       </c>
-      <c r="I1021" t="s">
-        <v>1173</v>
+      <c r="I1021" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>1256</v>
       </c>
-      <c r="B1022" t="s">
-        <v>20</v>
-      </c>
       <c r="C1022" t="s">
         <v>1257</v>
       </c>
       <c r="D1022" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E1022" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1022" t="s">
         <v>1258</v>
       </c>
       <c r="I1022" t="s">
-        <v>412</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
@@ -23190,36 +23187,39 @@
         <v>1257</v>
       </c>
       <c r="D1023" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E1023" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1023" t="s">
         <v>1258</v>
       </c>
       <c r="I1023" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>1256</v>
       </c>
+      <c r="B1024" t="s">
+        <v>20</v>
+      </c>
       <c r="C1024" t="s">
         <v>1257</v>
       </c>
       <c r="D1024" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E1024" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1024" t="s">
         <v>1258</v>
       </c>
       <c r="I1024" t="s">
-        <v>955</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
@@ -23230,68 +23230,65 @@
         <v>1257</v>
       </c>
       <c r="D1025" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1025" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1025" t="s">
         <v>1258</v>
       </c>
       <c r="I1025" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>1256</v>
       </c>
-      <c r="B1026" t="s">
-        <v>20</v>
-      </c>
       <c r="C1026" t="s">
         <v>1257</v>
       </c>
       <c r="D1026" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E1026" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1026" t="s">
         <v>1258</v>
       </c>
       <c r="I1026" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>1256</v>
       </c>
+      <c r="B1027" t="s">
+        <v>20</v>
+      </c>
       <c r="C1027" t="s">
         <v>1257</v>
       </c>
       <c r="D1027" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E1027" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1027" t="s">
         <v>1258</v>
       </c>
       <c r="I1027" t="s">
-        <v>1191</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>1256</v>
       </c>
-      <c r="B1028" t="s">
-        <v>20</v>
-      </c>
       <c r="C1028" t="s">
         <v>1257</v>
       </c>
@@ -23299,30 +23296,36 @@
         <v>1205</v>
       </c>
       <c r="E1028" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1028" t="s">
         <v>1258</v>
       </c>
       <c r="I1028" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>1256</v>
       </c>
+      <c r="B1029" t="s">
+        <v>20</v>
+      </c>
       <c r="C1029" t="s">
-        <v>1259</v>
+        <v>1257</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1205</v>
       </c>
       <c r="E1029" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F1029" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I1029" t="s">
-        <v>1065</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
@@ -23330,16 +23333,16 @@
         <v>1256</v>
       </c>
       <c r="C1030" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E1030" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1030" t="s">
         <v>1260</v>
       </c>
-      <c r="I1030" s="1" t="s">
-        <v>1262</v>
+      <c r="I1030" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
@@ -23347,36 +23350,33 @@
         <v>1256</v>
       </c>
       <c r="C1031" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E1031" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1031" t="s">
         <v>1260</v>
       </c>
-      <c r="I1031" t="s">
-        <v>352</v>
+      <c r="I1031" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>1256</v>
       </c>
-      <c r="B1032" t="s">
-        <v>20</v>
-      </c>
       <c r="C1032" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E1032" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1032" t="s">
         <v>1260</v>
       </c>
       <c r="I1032" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
@@ -23387,33 +23387,36 @@
         <v>20</v>
       </c>
       <c r="C1033" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E1033" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1033" t="s">
         <v>1260</v>
       </c>
       <c r="I1033" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>1256</v>
       </c>
+      <c r="B1034" t="s">
+        <v>20</v>
+      </c>
       <c r="C1034" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E1034" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1034" t="s">
         <v>1260</v>
       </c>
       <c r="I1034" t="s">
-        <v>955</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
@@ -23421,65 +23424,59 @@
         <v>1256</v>
       </c>
       <c r="C1035" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E1035" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1035" t="s">
         <v>1260</v>
       </c>
       <c r="I1035" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>1256</v>
       </c>
-      <c r="B1036" t="s">
-        <v>20</v>
-      </c>
       <c r="C1036" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E1036" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1036" t="s">
         <v>1260</v>
       </c>
       <c r="I1036" t="s">
-        <v>1075</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1256</v>
       </c>
+      <c r="B1037" t="s">
+        <v>20</v>
+      </c>
       <c r="C1037" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D1037" t="s">
-        <v>1189</v>
+        <v>1268</v>
       </c>
       <c r="E1037" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1037" t="s">
         <v>1260</v>
       </c>
       <c r="I1037" t="s">
-        <v>1191</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>1256</v>
       </c>
-      <c r="B1038" t="s">
-        <v>20</v>
-      </c>
       <c r="C1038" t="s">
         <v>1269</v>
       </c>
@@ -23487,79 +23484,79 @@
         <v>1189</v>
       </c>
       <c r="E1038" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1038" t="s">
         <v>1260</v>
       </c>
       <c r="I1038" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I1039" t="s">
         <v>1193</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E1040" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1040" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I1040" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>1270</v>
       </c>
-      <c r="B1041" t="s">
-        <v>20</v>
-      </c>
       <c r="C1041" t="s">
         <v>1271</v>
       </c>
       <c r="E1041" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1041" t="s">
         <v>1272</v>
       </c>
       <c r="I1041" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1273</v>
+        <v>1270</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>20</v>
       </c>
       <c r="C1042" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>1189</v>
+        <v>1271</v>
       </c>
       <c r="E1042" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1042" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I1042" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>1273</v>
       </c>
-      <c r="B1043" t="s">
-        <v>20</v>
-      </c>
       <c r="C1043" t="s">
         <v>1274</v>
       </c>
@@ -23567,60 +23564,69 @@
         <v>1189</v>
       </c>
       <c r="E1043" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1043" t="s">
         <v>1275</v>
       </c>
       <c r="I1043" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1276</v>
+        <v>1273</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>20</v>
       </c>
       <c r="C1044" t="s">
-        <v>1277</v>
+        <v>1274</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1189</v>
       </c>
       <c r="E1044" t="s">
-        <v>1278</v>
+        <v>1192</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1275</v>
       </c>
       <c r="I1044" t="s">
-        <v>1279</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>1276</v>
       </c>
-      <c r="G1045" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1045" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1045" s="1" t="s">
-        <v>1282</v>
+      <c r="C1045" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1046" t="s">
-        <v>1284</v>
+        <v>1276</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1046" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C1047" t="s">
         <v>1277</v>
@@ -23629,66 +23635,63 @@
         <v>1278</v>
       </c>
       <c r="I1047" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>1285</v>
       </c>
-      <c r="G1048" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1048" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1048" s="1" t="s">
-        <v>90</v>
+      <c r="C1048" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1049" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1049" t="s">
-        <v>1288</v>
+        <v>1285</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1049" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>1287</v>
       </c>
-      <c r="G1050" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1050" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1050" s="1" t="s">
-        <v>1030</v>
+      <c r="C1050" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1051" t="s">
-        <v>1290</v>
+        <v>1287</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
@@ -23698,127 +23701,121 @@
       <c r="B1052" t="s">
         <v>20</v>
       </c>
-      <c r="G1052" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>1291</v>
+      <c r="C1052" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1278</v>
       </c>
       <c r="I1052" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>1278</v>
+        <v>1289</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>1291</v>
       </c>
       <c r="I1053" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>1293</v>
       </c>
-      <c r="G1054" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1054" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1054" s="1" t="s">
-        <v>1295</v>
+      <c r="C1054" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1055" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1055" t="s">
-        <v>1297</v>
+        <v>1293</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1055" s="1" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>1296</v>
       </c>
-      <c r="G1056" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1056" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1056" s="1" t="s">
-        <v>1298</v>
+      <c r="C1056" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1057" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1057" t="s">
-        <v>1300</v>
+        <v>1296</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1057" s="1" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>1299</v>
       </c>
-      <c r="G1058" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1058" t="s">
-        <v>1281</v>
+      <c r="C1058" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1278</v>
       </c>
       <c r="I1058" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E1059" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1059" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I1059" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1059" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>1301</v>
       </c>
-      <c r="B1060" t="s">
-        <v>20</v>
-      </c>
       <c r="C1060" t="s">
         <v>1274</v>
       </c>
@@ -23826,190 +23823,190 @@
         <v>1189</v>
       </c>
       <c r="E1060" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1060" t="s">
         <v>1302</v>
       </c>
-      <c r="I1060" t="s">
-        <v>1224</v>
+      <c r="I1060" s="1" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1304</v>
+        <v>1301</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>20</v>
       </c>
       <c r="C1061" t="s">
-        <v>1228</v>
+        <v>1274</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1189</v>
       </c>
       <c r="E1061" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1061" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I1061" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>1304</v>
       </c>
-      <c r="B1062" t="s">
-        <v>20</v>
-      </c>
       <c r="C1062" t="s">
         <v>1228</v>
       </c>
       <c r="E1062" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1062" t="s">
         <v>1305</v>
       </c>
-      <c r="I1062" t="s">
-        <v>1224</v>
+      <c r="I1062" s="1" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1307</v>
+        <v>1304</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>20</v>
       </c>
       <c r="C1063" t="s">
         <v>1228</v>
       </c>
       <c r="E1063" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1063" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I1063" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
+      </c>
+      <c r="I1063" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>1307</v>
       </c>
-      <c r="B1064" t="s">
-        <v>20</v>
-      </c>
       <c r="C1064" t="s">
         <v>1228</v>
       </c>
       <c r="E1064" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1064" t="s">
         <v>1308</v>
       </c>
-      <c r="I1064" t="s">
-        <v>1224</v>
+      <c r="I1064" s="1" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1309</v>
+        <v>1307</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>20</v>
       </c>
       <c r="C1065" t="s">
         <v>1228</v>
       </c>
       <c r="E1065" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1065" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I1065" s="1" t="s">
-        <v>1223</v>
+        <v>1308</v>
+      </c>
+      <c r="I1065" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>1309</v>
       </c>
-      <c r="B1066" t="s">
-        <v>20</v>
-      </c>
       <c r="C1066" t="s">
         <v>1228</v>
       </c>
       <c r="E1066" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1066" t="s">
         <v>1310</v>
       </c>
-      <c r="I1066" t="s">
-        <v>1238</v>
+      <c r="I1066" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1311</v>
+        <v>1309</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>20</v>
       </c>
       <c r="C1067" t="s">
         <v>1228</v>
       </c>
       <c r="E1067" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1067" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I1067" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
+      </c>
+      <c r="I1067" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>1311</v>
       </c>
-      <c r="B1068" t="s">
-        <v>20</v>
-      </c>
       <c r="C1068" t="s">
         <v>1228</v>
       </c>
       <c r="E1068" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1068" t="s">
         <v>1312</v>
       </c>
-      <c r="I1068" t="s">
-        <v>1224</v>
+      <c r="I1068" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1314</v>
+        <v>1311</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>20</v>
       </c>
       <c r="C1069" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1069" t="s">
-        <v>1189</v>
+        <v>1228</v>
       </c>
       <c r="E1069" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1069" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I1069" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
+      </c>
+      <c r="I1069" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>1314</v>
       </c>
-      <c r="B1070" t="s">
-        <v>20</v>
-      </c>
       <c r="C1070" t="s">
         <v>1274</v>
       </c>
@@ -24017,133 +24014,137 @@
         <v>1189</v>
       </c>
       <c r="E1070" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1070" t="s">
         <v>1315</v>
       </c>
-      <c r="I1070" t="s">
-        <v>1238</v>
+      <c r="I1070" s="1" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1317</v>
+        <v>1314</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>20</v>
       </c>
       <c r="C1071" t="s">
-        <v>1228</v>
+        <v>1274</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1189</v>
       </c>
       <c r="E1071" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1071" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I1071" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+      <c r="I1071" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>1317</v>
       </c>
-      <c r="B1072" t="s">
-        <v>20</v>
-      </c>
       <c r="C1072" t="s">
         <v>1228</v>
       </c>
-      <c r="D1072"/>
       <c r="E1072" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1072" t="s">
         <v>1318</v>
       </c>
-      <c r="G1072"/>
-      <c r="H1072"/>
-      <c r="I1072" t="s">
-        <v>1224</v>
+      <c r="I1072" s="1" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="1073" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B1073"/>
+        <v>1317</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>20</v>
+      </c>
       <c r="C1073" t="s">
-        <v>1277</v>
+        <v>1228</v>
       </c>
       <c r="D1073"/>
       <c r="E1073" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F1073"/>
+        <v>1192</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1318</v>
+      </c>
       <c r="G1073"/>
       <c r="H1073"/>
       <c r="I1073" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>1320</v>
       </c>
-      <c r="G1074" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1074" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1074" s="1" t="s">
-        <v>1321</v>
+      <c r="B1074"/>
+      <c r="C1074" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1074"/>
+      <c r="E1074" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1074"/>
+      <c r="G1074"/>
+      <c r="H1074"/>
+      <c r="I1074" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1075" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1075" t="s">
-        <v>1294</v>
+        <v>1320</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1075" s="1" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>1322</v>
       </c>
-      <c r="G1076" t="s">
+      <c r="C1076" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1076" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G1077" t="s">
         <v>1280</v>
       </c>
-      <c r="H1076" t="s">
+      <c r="H1077" t="s">
         <v>1281</v>
       </c>
-      <c r="I1076" s="1" t="s">
+      <c r="I1077" s="1" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1077" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1077" s="2"/>
-      <c r="C1077" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D1077" s="2"/>
-      <c r="E1077" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F1077" s="2"/>
-      <c r="G1077" s="2"/>
-      <c r="H1077" s="2"/>
-      <c r="I1077" s="2" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
@@ -24151,35 +24152,37 @@
         <v>1437</v>
       </c>
       <c r="B1078" s="2"/>
-      <c r="C1078" s="2"/>
+      <c r="C1078" s="2" t="s">
+        <v>1277</v>
+      </c>
       <c r="D1078" s="2"/>
-      <c r="E1078" s="2"/>
+      <c r="E1078" s="2" t="s">
+        <v>1278</v>
+      </c>
       <c r="F1078" s="2"/>
-      <c r="G1078" s="2" t="s">
+      <c r="G1078" s="2"/>
+      <c r="H1078" s="2"/>
+      <c r="I1078" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1079" s="2"/>
+      <c r="C1079" s="2"/>
+      <c r="D1079" s="2"/>
+      <c r="E1079" s="2"/>
+      <c r="F1079" s="2"/>
+      <c r="G1079" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="H1078" s="2" t="s">
+      <c r="H1079" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="I1078" s="3" t="s">
+      <c r="I1079" s="3" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1079" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1079" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
@@ -24189,92 +24192,95 @@
       <c r="B1080" t="s">
         <v>20</v>
       </c>
-      <c r="G1080" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1080" t="s">
-        <v>1291</v>
+      <c r="C1080" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1278</v>
       </c>
       <c r="I1080" t="s">
-        <v>561</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1081" t="s">
-        <v>1278</v>
+        <v>1324</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>1291</v>
       </c>
       <c r="I1081" t="s">
-        <v>1279</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>1325</v>
       </c>
-      <c r="G1082" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1082" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1082" s="1" t="s">
-        <v>1326</v>
+      <c r="C1082" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1083" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1083" t="s">
-        <v>1279</v>
+        <v>1325</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1083" s="1" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>1327</v>
       </c>
-      <c r="G1084" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1084" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1084" s="1" t="s">
-        <v>1328</v>
+      <c r="C1084" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1085" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1085" t="s">
-        <v>1284</v>
+        <v>1327</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1085" s="1" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C1086" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="E1086" t="s">
         <v>1278</v>
@@ -24285,131 +24291,128 @@
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C1087" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E1087" t="s">
         <v>1278</v>
       </c>
       <c r="I1087" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>1331</v>
       </c>
-      <c r="G1088" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1088" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1088" s="1" t="s">
-        <v>1332</v>
+      <c r="C1088" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1088" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1089" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1089" t="s">
-        <v>1286</v>
+        <v>1331</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1089" s="1" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>1333</v>
       </c>
-      <c r="G1090" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1090" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1090" s="1" t="s">
-        <v>81</v>
+      <c r="C1090" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1091" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1091" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1091" t="s">
-        <v>1288</v>
+        <v>1333</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1091" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>1334</v>
       </c>
-      <c r="G1092" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1092" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1092" s="1" t="s">
-        <v>1335</v>
+      <c r="C1092" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1093" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1093" t="s">
-        <v>1288</v>
+        <v>1334</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1093" s="1" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>1336</v>
       </c>
-      <c r="G1094" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1094" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1094" s="1" t="s">
-        <v>1118</v>
+      <c r="C1094" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1095" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1095" t="s">
-        <v>1290</v>
+        <v>1336</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1095" s="1" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
@@ -24419,31 +24422,31 @@
       <c r="B1096" t="s">
         <v>20</v>
       </c>
-      <c r="G1096" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1096" t="s">
-        <v>1291</v>
+      <c r="C1096" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1278</v>
       </c>
       <c r="I1096" t="s">
-        <v>1338</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B1097" t="s">
         <v>20</v>
       </c>
-      <c r="C1097" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1097" t="s">
-        <v>1278</v>
+      <c r="G1097" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>1291</v>
       </c>
       <c r="I1097" t="s">
-        <v>1290</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
@@ -24453,211 +24456,205 @@
       <c r="B1098" t="s">
         <v>20</v>
       </c>
-      <c r="G1098" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1098" t="s">
-        <v>1291</v>
+      <c r="C1098" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1278</v>
       </c>
       <c r="I1098" t="s">
-        <v>561</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1099" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1099" t="s">
-        <v>1278</v>
+        <v>1339</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>1291</v>
       </c>
       <c r="I1099" t="s">
-        <v>1294</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>1340</v>
       </c>
-      <c r="G1100" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1100" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1100" s="1" t="s">
-        <v>1341</v>
+      <c r="C1100" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1100" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C1101" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1101" t="s">
-        <v>1294</v>
+        <v>1340</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1101" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>1342</v>
       </c>
-      <c r="G1102" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1102" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1102" s="1" t="s">
-        <v>1341</v>
+      <c r="C1102" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1103" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1103" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1103" t="s">
-        <v>1297</v>
+        <v>1342</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1103" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>1343</v>
       </c>
-      <c r="G1104" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1104" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1104" s="1" t="s">
-        <v>1344</v>
+      <c r="C1104" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C1105" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1105" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1105" t="s">
-        <v>1297</v>
+        <v>1343</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1105" s="1" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>1345</v>
       </c>
-      <c r="G1106" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1106" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1106" s="1" t="s">
-        <v>1346</v>
+      <c r="C1106" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C1107" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1107" t="s">
-        <v>1300</v>
+        <v>1345</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1107" s="1" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>1347</v>
       </c>
-      <c r="G1108" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1108" t="s">
-        <v>1281</v>
+      <c r="C1108" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>1278</v>
       </c>
       <c r="I1108" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C1109" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1109" t="s">
-        <v>1278</v>
+        <v>1347</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>1281</v>
       </c>
       <c r="I1109" t="s">
-        <v>1300</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>1348</v>
       </c>
-      <c r="G1110" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1110" t="s">
-        <v>1281</v>
+      <c r="C1110" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>1278</v>
       </c>
       <c r="I1110" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1111" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E1111" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1111" t="s">
-        <v>1351</v>
+        <v>1348</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>1281</v>
       </c>
       <c r="I1111" t="s">
-        <v>1191</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>1349</v>
       </c>
-      <c r="B1112" t="s">
-        <v>20</v>
-      </c>
       <c r="C1112" t="s">
         <v>1350</v>
       </c>
@@ -24665,29 +24662,52 @@
         <v>1189</v>
       </c>
       <c r="E1112" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1112" t="s">
         <v>1351</v>
       </c>
       <c r="I1112" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>1349</v>
       </c>
+      <c r="B1113" t="s">
+        <v>20</v>
+      </c>
       <c r="C1113" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I1113" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1114" t="s">
         <v>1352</v>
       </c>
-      <c r="E1113" t="s">
+      <c r="E1114" t="s">
         <v>1244</v>
       </c>
-      <c r="F1113" t="s">
+      <c r="F1114" t="s">
         <v>1353</v>
       </c>
-      <c r="I1113" t="s">
+      <c r="I1114" t="s">
         <v>1354</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\configuration\master-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4E185-CAF8-4152-862D-CDD7CFE40DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B29850-3E40-46AB-B34E-5F9BB22C4101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28935" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="2505" windowWidth="27840" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_definitions_new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="1485">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4472,6 +4472,9 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.massmail.MassMailService.prepareRecipients</t>
+  </si>
+  <si>
+    <t>visitScheduleItemIds</t>
   </si>
 </sst>
 </file>
@@ -5343,10 +5346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1114"/>
+  <dimension ref="A1:I1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="A768" sqref="A768"/>
+    <sheetView tabSelected="1" topLeftCell="I743" workbookViewId="0">
+      <selection activeCell="I752" sqref="I752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17835,56 +17838,59 @@
       <c r="E751" t="s">
         <v>253</v>
       </c>
+      <c r="F751" s="2" t="s">
+        <v>1028</v>
+      </c>
       <c r="I751" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G752" t="s">
-        <v>96</v>
-      </c>
-      <c r="H752" t="s">
-        <v>70</v>
-      </c>
-      <c r="I752" s="1" t="s">
-        <v>1030</v>
+    <row r="752" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E753" t="s">
-        <v>1012</v>
+        <v>1029</v>
+      </c>
+      <c r="G753" t="s">
+        <v>96</v>
+      </c>
+      <c r="H753" t="s">
+        <v>70</v>
       </c>
       <c r="I753" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B754" t="s">
-        <v>20</v>
+        <v>1031</v>
       </c>
       <c r="C754" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E754" t="s">
         <v>1012</v>
       </c>
       <c r="I754" s="1" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.25">
@@ -17898,30 +17904,33 @@
         <v>1020</v>
       </c>
       <c r="D755" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E755" t="s">
-        <v>421</v>
-      </c>
-      <c r="I755" t="s">
-        <v>1034</v>
+        <v>1012</v>
+      </c>
+      <c r="I755" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1035</v>
+        <v>1032</v>
+      </c>
+      <c r="B756" t="s">
+        <v>20</v>
       </c>
       <c r="C756" t="s">
-        <v>1016</v>
+        <v>1020</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1022</v>
       </c>
       <c r="E756" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F756" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I756" s="1" t="s">
-        <v>1036</v>
+        <v>421</v>
+      </c>
+      <c r="I756" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.25">
@@ -17929,36 +17938,33 @@
         <v>1035</v>
       </c>
       <c r="C757" t="s">
-        <v>531</v>
+        <v>1016</v>
       </c>
       <c r="E757" t="s">
-        <v>421</v>
+        <v>1012</v>
       </c>
       <c r="F757" t="s">
         <v>1035</v>
       </c>
-      <c r="I757" t="s">
-        <v>532</v>
+      <c r="I757" s="1" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B758" t="s">
-        <v>20</v>
+        <v>1035</v>
       </c>
       <c r="C758" t="s">
-        <v>1016</v>
+        <v>531</v>
       </c>
       <c r="E758" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="F758" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I758" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
+      </c>
+      <c r="I758" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.25">
@@ -17969,70 +17975,73 @@
         <v>20</v>
       </c>
       <c r="C759" t="s">
-        <v>531</v>
+        <v>1016</v>
       </c>
       <c r="E759" t="s">
-        <v>421</v>
+        <v>1012</v>
       </c>
       <c r="F759" t="s">
         <v>1037</v>
       </c>
-      <c r="I759" t="s">
-        <v>1039</v>
+      <c r="I759" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B760" t="s">
         <v>20</v>
       </c>
-      <c r="G760" t="s">
-        <v>96</v>
-      </c>
-      <c r="H760" t="s">
-        <v>70</v>
-      </c>
-      <c r="I760" s="1" t="s">
-        <v>1036</v>
+      <c r="C760" t="s">
+        <v>531</v>
+      </c>
+      <c r="E760" t="s">
+        <v>421</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I760" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B761" t="s">
         <v>20</v>
       </c>
-      <c r="C761" t="s">
-        <v>531</v>
-      </c>
-      <c r="E761" t="s">
-        <v>421</v>
-      </c>
-      <c r="F761" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I761" t="s">
-        <v>1043</v>
+      <c r="G761" t="s">
+        <v>96</v>
+      </c>
+      <c r="H761" t="s">
+        <v>70</v>
+      </c>
+      <c r="I761" s="1" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1041</v>
       </c>
+      <c r="B762" t="s">
+        <v>20</v>
+      </c>
       <c r="C762" t="s">
         <v>531</v>
       </c>
       <c r="E762" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F762" t="s">
         <v>1042</v>
       </c>
       <c r="I762" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.25">
@@ -18040,53 +18049,53 @@
         <v>1041</v>
       </c>
       <c r="C763" t="s">
-        <v>1045</v>
+        <v>531</v>
       </c>
       <c r="E763" t="s">
-        <v>1046</v>
+        <v>463</v>
       </c>
       <c r="F763" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I763" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
+      </c>
+      <c r="I763" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B764" t="s">
-        <v>20</v>
+        <v>1041</v>
       </c>
       <c r="C764" t="s">
-        <v>531</v>
+        <v>1045</v>
       </c>
       <c r="E764" t="s">
-        <v>421</v>
+        <v>1046</v>
       </c>
       <c r="F764" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I764" t="s">
-        <v>1051</v>
+        <v>1047</v>
+      </c>
+      <c r="I764" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1049</v>
       </c>
+      <c r="B765" t="s">
+        <v>20</v>
+      </c>
       <c r="C765" t="s">
         <v>531</v>
       </c>
       <c r="E765" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F765" t="s">
         <v>1050</v>
       </c>
       <c r="I765" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.25">
@@ -18094,70 +18103,67 @@
         <v>1049</v>
       </c>
       <c r="C766" t="s">
-        <v>1045</v>
+        <v>531</v>
       </c>
       <c r="E766" t="s">
-        <v>1046</v>
+        <v>463</v>
       </c>
       <c r="F766" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I766" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
+      </c>
+      <c r="I766" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I767" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
         <v>1055</v>
       </c>
-      <c r="B767" t="s">
-        <v>20</v>
-      </c>
-      <c r="G767" t="s">
+      <c r="B768" t="s">
+        <v>20</v>
+      </c>
+      <c r="G768" t="s">
         <v>96</v>
       </c>
-      <c r="H767" t="s">
+      <c r="H768" t="s">
         <v>70</v>
       </c>
-      <c r="I767" s="1" t="s">
+      <c r="I768" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="768" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="2" t="s">
+    <row r="769" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="B768" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G768" s="2" t="s">
+      <c r="B769" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G769" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H768" s="2" t="s">
+      <c r="H769" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I768" s="3" t="s">
+      <c r="I769" s="3" t="s">
         <v>1036</v>
-      </c>
-    </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B769" t="s">
-        <v>20</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D769" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E769" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I769" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.25">
@@ -18171,27 +18177,33 @@
         <v>1020</v>
       </c>
       <c r="D770" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E770" t="s">
-        <v>421</v>
+        <v>1012</v>
       </c>
       <c r="I770" t="s">
-        <v>1057</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1058</v>
+        <v>1056</v>
+      </c>
+      <c r="B771" t="s">
+        <v>20</v>
       </c>
       <c r="C771" t="s">
-        <v>1059</v>
+        <v>1020</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1022</v>
       </c>
       <c r="E771" t="s">
-        <v>1012</v>
+        <v>421</v>
       </c>
       <c r="I771" t="s">
-        <v>1009</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.25">
@@ -18199,30 +18211,27 @@
         <v>1058</v>
       </c>
       <c r="C772" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E772" t="s">
-        <v>11</v>
+        <v>1012</v>
       </c>
       <c r="I772" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C774" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F774" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I774" t="s">
-        <v>1065</v>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E773" t="s">
+        <v>11</v>
+      </c>
+      <c r="I773" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.25">
@@ -18230,16 +18239,16 @@
         <v>1061</v>
       </c>
       <c r="C775" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E775" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F775" t="s">
         <v>1064</v>
       </c>
-      <c r="I775" s="1" t="s">
-        <v>335</v>
+      <c r="I775" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.25">
@@ -18247,92 +18256,89 @@
         <v>1061</v>
       </c>
       <c r="C776" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E776" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F776" t="s">
         <v>1064</v>
       </c>
-      <c r="I776" t="s">
-        <v>366</v>
+      <c r="I776" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1061</v>
       </c>
-      <c r="B777" s="2"/>
       <c r="C777" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E777" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F777" t="s">
         <v>1064</v>
       </c>
       <c r="I777" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1061</v>
       </c>
-      <c r="B778" t="s">
-        <v>20</v>
-      </c>
+      <c r="B778" s="2"/>
       <c r="C778" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E778" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F778" t="s">
         <v>1064</v>
       </c>
       <c r="I778" t="s">
-        <v>702</v>
+        <v>419</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1061</v>
       </c>
-      <c r="B779" s="2"/>
+      <c r="B779" t="s">
+        <v>20</v>
+      </c>
       <c r="C779" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E779" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F779" t="s">
         <v>1064</v>
       </c>
       <c r="I779" t="s">
-        <v>1075</v>
+        <v>702</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1076</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="B780" s="2"/>
       <c r="C780" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E780" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F780" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I780" s="1" t="s">
-        <v>1080</v>
+        <v>1064</v>
+      </c>
+      <c r="I780" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.25">
@@ -18343,16 +18349,16 @@
         <v>1077</v>
       </c>
       <c r="D781" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E781" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F781" t="s">
         <v>1079</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>236</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.25">
@@ -18363,115 +18369,115 @@
         <v>1077</v>
       </c>
       <c r="D782" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E782" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F782" t="s">
         <v>1079</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>1083</v>
+        <v>236</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1076</v>
       </c>
-      <c r="B783" s="2"/>
       <c r="C783" t="s">
         <v>1077</v>
       </c>
       <c r="D783" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E783" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F783" t="s">
         <v>1079</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1076</v>
       </c>
-      <c r="B784" t="s">
-        <v>20</v>
-      </c>
+      <c r="B784" s="2"/>
       <c r="C784" t="s">
         <v>1077</v>
       </c>
       <c r="D784" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E784" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F784" t="s">
         <v>1079</v>
       </c>
-      <c r="I784" t="s">
-        <v>857</v>
+      <c r="I784" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1076</v>
       </c>
-      <c r="B785" s="2"/>
+      <c r="B785" t="s">
+        <v>20</v>
+      </c>
       <c r="C785" t="s">
         <v>1077</v>
       </c>
       <c r="D785" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E785" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F785" t="s">
         <v>1079</v>
       </c>
-      <c r="I785" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="786" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I785" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1076</v>
       </c>
-      <c r="G786" t="s">
+      <c r="B786" s="2"/>
+      <c r="C786" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I786" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G787" t="s">
         <v>1088</v>
       </c>
-      <c r="H786" t="s">
+      <c r="H787" t="s">
         <v>1089</v>
       </c>
-      <c r="I786" s="4" t="s">
+      <c r="I787" s="4" t="s">
         <v>1462</v>
-      </c>
-    </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C787" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D787" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E787" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F787" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I787" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
@@ -18482,16 +18488,16 @@
         <v>1091</v>
       </c>
       <c r="D788" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E788" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F788" t="s">
         <v>1093</v>
       </c>
-      <c r="I788" s="1" t="s">
-        <v>335</v>
+      <c r="I788" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
@@ -18502,101 +18508,101 @@
         <v>1091</v>
       </c>
       <c r="D789" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E789" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F789" t="s">
         <v>1093</v>
       </c>
-      <c r="I789" t="s">
-        <v>352</v>
+      <c r="I789" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1090</v>
       </c>
-      <c r="B790" s="2"/>
       <c r="C790" t="s">
         <v>1091</v>
       </c>
       <c r="D790" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E790" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F790" t="s">
         <v>1093</v>
       </c>
       <c r="I790" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1090</v>
       </c>
-      <c r="B791" t="s">
-        <v>20</v>
-      </c>
+      <c r="B791" s="2"/>
       <c r="C791" t="s">
         <v>1091</v>
       </c>
       <c r="D791" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E791" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F791" t="s">
         <v>1093</v>
       </c>
       <c r="I791" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1090</v>
       </c>
-      <c r="B792" s="2"/>
+      <c r="B792" t="s">
+        <v>20</v>
+      </c>
       <c r="C792" t="s">
         <v>1091</v>
       </c>
       <c r="D792" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E792" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F792" t="s">
         <v>1093</v>
       </c>
       <c r="I792" t="s">
-        <v>1017</v>
+        <v>422</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1099</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="B793" s="2"/>
       <c r="C793" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D793" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E793" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F793" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="I793" t="s">
-        <v>35</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.25">
@@ -18607,16 +18613,16 @@
         <v>1077</v>
       </c>
       <c r="D794" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E794" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F794" t="s">
         <v>1100</v>
       </c>
-      <c r="I794" s="1" t="s">
-        <v>139</v>
+      <c r="I794" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.25">
@@ -18627,115 +18633,115 @@
         <v>1077</v>
       </c>
       <c r="D795" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E795" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F795" t="s">
         <v>1100</v>
       </c>
-      <c r="I795" t="s">
-        <v>352</v>
+      <c r="I795" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1099</v>
       </c>
-      <c r="B796" s="2"/>
       <c r="C796" t="s">
         <v>1077</v>
       </c>
       <c r="D796" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E796" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F796" t="s">
         <v>1100</v>
       </c>
       <c r="I796" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1099</v>
       </c>
-      <c r="B797" t="s">
-        <v>20</v>
-      </c>
+      <c r="B797" s="2"/>
       <c r="C797" t="s">
         <v>1077</v>
       </c>
       <c r="D797" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E797" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F797" t="s">
         <v>1100</v>
       </c>
       <c r="I797" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1099</v>
       </c>
-      <c r="B798" s="2"/>
+      <c r="B798" t="s">
+        <v>20</v>
+      </c>
       <c r="C798" t="s">
         <v>1077</v>
       </c>
       <c r="D798" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E798" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F798" t="s">
         <v>1100</v>
       </c>
       <c r="I798" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B799" s="2"/>
+      <c r="C799" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I799" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="799" spans="1:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A799" s="2" t="s">
+    <row r="800" spans="1:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="G799" s="2" t="s">
+      <c r="G800" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H799" s="2" t="s">
+      <c r="H800" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="I799" s="4" t="s">
+      <c r="I800" s="4" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D800" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E800" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F800" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I800" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.25">
@@ -18746,16 +18752,16 @@
         <v>1091</v>
       </c>
       <c r="D801" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E801" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F801" t="s">
         <v>1102</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.25">
@@ -18766,16 +18772,16 @@
         <v>1091</v>
       </c>
       <c r="D802" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E802" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F802" t="s">
         <v>1102</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.25">
@@ -18786,98 +18792,98 @@
         <v>1091</v>
       </c>
       <c r="D803" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E803" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F803" t="s">
         <v>1102</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1101</v>
       </c>
-      <c r="B804" s="2"/>
       <c r="C804" t="s">
         <v>1091</v>
       </c>
+      <c r="D804" t="s">
+        <v>1096</v>
+      </c>
       <c r="E804" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F804" t="s">
         <v>1102</v>
       </c>
-      <c r="I804" t="s">
-        <v>1104</v>
+      <c r="I804" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1101</v>
       </c>
-      <c r="B805" t="s">
-        <v>20</v>
-      </c>
+      <c r="B805" s="2"/>
       <c r="C805" t="s">
         <v>1091</v>
       </c>
-      <c r="D805" t="s">
-        <v>1097</v>
-      </c>
       <c r="E805" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F805" t="s">
         <v>1102</v>
       </c>
       <c r="I805" t="s">
-        <v>782</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1101</v>
       </c>
-      <c r="B806" s="2"/>
+      <c r="B806" t="s">
+        <v>20</v>
+      </c>
       <c r="C806" t="s">
         <v>1091</v>
       </c>
       <c r="D806" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E806" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F806" t="s">
         <v>1102</v>
       </c>
-      <c r="I806" s="1" t="s">
-        <v>1025</v>
+      <c r="I806" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1105</v>
-      </c>
+        <v>1101</v>
+      </c>
+      <c r="B807" s="2"/>
       <c r="C807" t="s">
         <v>1091</v>
       </c>
       <c r="D807" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E807" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F807" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>23</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.25">
@@ -18888,16 +18894,16 @@
         <v>1091</v>
       </c>
       <c r="D808" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E808" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F808" t="s">
         <v>1106</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.25">
@@ -18908,121 +18914,121 @@
         <v>1091</v>
       </c>
       <c r="D809" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E809" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F809" t="s">
         <v>1106</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1105</v>
       </c>
-      <c r="B810" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C810" t="s">
         <v>1091</v>
       </c>
       <c r="D810" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E810" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F810" t="s">
         <v>1106</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>1107</v>
+        <v>371</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1105</v>
       </c>
-      <c r="B811" s="2"/>
+      <c r="B811" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C811" t="s">
         <v>1091</v>
       </c>
+      <c r="D811" t="s">
+        <v>1096</v>
+      </c>
       <c r="E811" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F811" t="s">
         <v>1106</v>
       </c>
-      <c r="I811" t="s">
-        <v>1104</v>
+      <c r="I811" s="1" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1105</v>
       </c>
-      <c r="B812" t="s">
-        <v>20</v>
-      </c>
+      <c r="B812" s="2"/>
       <c r="C812" t="s">
         <v>1091</v>
       </c>
-      <c r="D812" t="s">
-        <v>1097</v>
-      </c>
       <c r="E812" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F812" t="s">
         <v>1106</v>
       </c>
       <c r="I812" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1105</v>
       </c>
-      <c r="B813" s="2"/>
+      <c r="B813" t="s">
+        <v>20</v>
+      </c>
       <c r="C813" t="s">
         <v>1091</v>
       </c>
       <c r="D813" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E813" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F813" t="s">
         <v>1106</v>
       </c>
-      <c r="I813" s="1" t="s">
-        <v>1025</v>
+      <c r="I813" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1109</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="B814" s="2"/>
       <c r="C814" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D814" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E814" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F814" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>23</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.25">
@@ -19033,16 +19039,16 @@
         <v>1077</v>
       </c>
       <c r="D815" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E815" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F815" t="s">
         <v>1110</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.25">
@@ -19053,16 +19059,16 @@
         <v>1077</v>
       </c>
       <c r="D816" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E816" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F816" t="s">
         <v>1110</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.25">
@@ -19073,16 +19079,16 @@
         <v>1077</v>
       </c>
       <c r="D817" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E817" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F817" t="s">
         <v>1110</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.25">
@@ -19093,16 +19099,16 @@
         <v>1077</v>
       </c>
       <c r="D818" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E818" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F818" t="s">
         <v>1110</v>
       </c>
-      <c r="I818" t="s">
-        <v>782</v>
+      <c r="I818" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.25">
@@ -19113,50 +19119,50 @@
         <v>1077</v>
       </c>
       <c r="D819" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E819" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F819" t="s">
         <v>1110</v>
       </c>
-      <c r="I819" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="820" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I819" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1109</v>
       </c>
-      <c r="G820" t="s">
+      <c r="C820" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I820" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G821" t="s">
         <v>1088</v>
       </c>
-      <c r="H820" t="s">
+      <c r="H821" t="s">
         <v>1089</v>
       </c>
-      <c r="I820" s="4" t="s">
+      <c r="I821" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="821" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C821" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D821" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E821" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F821" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I821" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="822" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19167,16 +19173,16 @@
         <v>1077</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F822" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I822" s="3" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="823" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19187,16 +19193,16 @@
         <v>1077</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F823" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I823" s="3" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="824" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19207,16 +19213,16 @@
         <v>1077</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F824" s="2" t="s">
         <v>1461</v>
       </c>
       <c r="I824" s="3" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="825" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19227,16 +19233,16 @@
         <v>1077</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F825" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="I825" s="2" t="s">
-        <v>782</v>
+      <c r="I825" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="826" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19247,50 +19253,50 @@
         <v>1077</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F826" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="I826" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="827" spans="1:9" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="I826" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="G827" s="2" t="s">
+      <c r="C827" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F827" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G828" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H827" s="2" t="s">
+      <c r="H828" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="I827" s="4" t="s">
+      <c r="I828" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C828" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D828" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E828" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F828" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I828" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
@@ -19301,16 +19307,16 @@
         <v>1077</v>
       </c>
       <c r="D829" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E829" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F829" t="s">
         <v>1112</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.25">
@@ -19321,132 +19327,132 @@
         <v>1077</v>
       </c>
       <c r="D830" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E830" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F830" t="s">
         <v>1112</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1111</v>
       </c>
-      <c r="B831" s="2"/>
       <c r="C831" t="s">
         <v>1077</v>
       </c>
       <c r="D831" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E831" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F831" t="s">
         <v>1112</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>517</v>
+        <v>371</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1111</v>
       </c>
-      <c r="B832" t="s">
-        <v>20</v>
-      </c>
+      <c r="B832" s="2"/>
       <c r="C832" t="s">
         <v>1077</v>
       </c>
       <c r="D832" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E832" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F832" t="s">
         <v>1112</v>
       </c>
-      <c r="I832" t="s">
-        <v>782</v>
+      <c r="I832" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1111</v>
       </c>
-      <c r="B833" s="2"/>
+      <c r="B833" t="s">
+        <v>20</v>
+      </c>
       <c r="C833" t="s">
         <v>1077</v>
       </c>
       <c r="D833" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E833" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F833" t="s">
         <v>1112</v>
       </c>
-      <c r="I833" s="1" t="s">
-        <v>1025</v>
+      <c r="I833" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1111</v>
       </c>
+      <c r="B834" s="2"/>
       <c r="C834" t="s">
-        <v>1113</v>
+        <v>1077</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1087</v>
       </c>
       <c r="E834" t="s">
-        <v>463</v>
+        <v>1074</v>
       </c>
       <c r="F834" t="s">
         <v>1112</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="835" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1111</v>
       </c>
-      <c r="G835" t="s">
+      <c r="C835" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E835" t="s">
+        <v>463</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I835" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G836" t="s">
         <v>1088</v>
       </c>
-      <c r="H835" t="s">
+      <c r="H836" t="s">
         <v>1089</v>
       </c>
-      <c r="I835" s="4" t="s">
+      <c r="I836" s="4" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C836" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D836" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E836" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F836" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I836" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
@@ -19457,16 +19463,16 @@
         <v>1091</v>
       </c>
       <c r="D837" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E837" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F837" t="s">
         <v>1116</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
@@ -19477,120 +19483,120 @@
         <v>1091</v>
       </c>
       <c r="D838" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E838" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F838" t="s">
         <v>1116</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1115</v>
       </c>
-      <c r="B839" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C839" t="s">
         <v>1091</v>
       </c>
       <c r="D839" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E839" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F839" t="s">
         <v>1116</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>1117</v>
+        <v>371</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1115</v>
       </c>
+      <c r="B840" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C840" t="s">
         <v>1091</v>
       </c>
+      <c r="D840" t="s">
+        <v>1096</v>
+      </c>
       <c r="E840" t="s">
-        <v>1103</v>
+        <v>1070</v>
       </c>
       <c r="F840" t="s">
         <v>1116</v>
       </c>
-      <c r="I840" t="s">
-        <v>1104</v>
+      <c r="I840" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1115</v>
       </c>
-      <c r="B841" t="s">
-        <v>20</v>
-      </c>
       <c r="C841" t="s">
         <v>1091</v>
       </c>
-      <c r="D841" t="s">
-        <v>1097</v>
-      </c>
       <c r="E841" t="s">
-        <v>1072</v>
+        <v>1103</v>
       </c>
       <c r="F841" t="s">
         <v>1116</v>
       </c>
       <c r="I841" t="s">
-        <v>886</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1115</v>
       </c>
-      <c r="B842" s="2"/>
+      <c r="B842" t="s">
+        <v>20</v>
+      </c>
       <c r="C842" t="s">
         <v>1091</v>
       </c>
       <c r="D842" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E842" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F842" t="s">
         <v>1116</v>
       </c>
-      <c r="I842" s="1" t="s">
-        <v>1118</v>
+      <c r="I842" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1119</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="B843" s="2"/>
       <c r="C843" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="D843" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="E843" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F843" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>75</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
@@ -19601,16 +19607,16 @@
         <v>1077</v>
       </c>
       <c r="D844" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E844" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F844" t="s">
         <v>1120</v>
       </c>
       <c r="I844" s="1" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
@@ -19621,115 +19627,115 @@
         <v>1077</v>
       </c>
       <c r="D845" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E845" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F845" t="s">
         <v>1120</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1119</v>
       </c>
-      <c r="B846" s="2"/>
       <c r="C846" t="s">
         <v>1077</v>
       </c>
       <c r="D846" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E846" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F846" t="s">
         <v>1120</v>
       </c>
       <c r="I846" s="1" t="s">
-        <v>518</v>
+        <v>371</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1119</v>
       </c>
-      <c r="B847" t="s">
-        <v>20</v>
-      </c>
+      <c r="B847" s="2"/>
       <c r="C847" t="s">
         <v>1077</v>
       </c>
       <c r="D847" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E847" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F847" t="s">
         <v>1120</v>
       </c>
-      <c r="I847" t="s">
-        <v>782</v>
+      <c r="I847" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1119</v>
       </c>
-      <c r="B848" s="2"/>
+      <c r="B848" t="s">
+        <v>20</v>
+      </c>
       <c r="C848" t="s">
         <v>1077</v>
       </c>
       <c r="D848" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E848" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F848" t="s">
         <v>1120</v>
       </c>
-      <c r="I848" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="849" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I848" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1119</v>
       </c>
-      <c r="G849" t="s">
+      <c r="B849" s="2"/>
+      <c r="C849" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I849" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G850" t="s">
         <v>1088</v>
       </c>
-      <c r="H849" t="s">
+      <c r="H850" t="s">
         <v>1089</v>
       </c>
-      <c r="I849" s="4" t="s">
+      <c r="I850" s="4" t="s">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C850" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D850" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E850" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F850" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I850" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
@@ -19740,16 +19746,16 @@
         <v>1077</v>
       </c>
       <c r="D851" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E851" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F851" t="s">
         <v>1122</v>
       </c>
       <c r="I851" s="1" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
@@ -19760,16 +19766,16 @@
         <v>1077</v>
       </c>
       <c r="D852" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E852" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F852" t="s">
         <v>1122</v>
       </c>
       <c r="I852" s="1" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
@@ -19780,16 +19786,16 @@
         <v>1077</v>
       </c>
       <c r="D853" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E853" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F853" t="s">
         <v>1122</v>
       </c>
       <c r="I853" s="1" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -19800,16 +19806,16 @@
         <v>1077</v>
       </c>
       <c r="D854" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E854" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F854" t="s">
         <v>1122</v>
       </c>
-      <c r="I854" t="s">
-        <v>782</v>
+      <c r="I854" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
@@ -19820,50 +19826,50 @@
         <v>1077</v>
       </c>
       <c r="D855" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E855" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F855" t="s">
         <v>1122</v>
       </c>
-      <c r="I855" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="856" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I855" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1121</v>
       </c>
-      <c r="G856" t="s">
+      <c r="C856" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I856" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G857" t="s">
         <v>1088</v>
       </c>
-      <c r="H856" t="s">
+      <c r="H857" t="s">
         <v>1089</v>
       </c>
-      <c r="I856" s="4" t="s">
+      <c r="I857" s="4" t="s">
         <v>1465</v>
-      </c>
-    </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D857" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E857" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F857" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I857" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
@@ -19874,16 +19880,16 @@
         <v>1124</v>
       </c>
       <c r="D858" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E858" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F858" t="s">
         <v>1125</v>
       </c>
-      <c r="I858" s="1" t="s">
-        <v>153</v>
+      <c r="I858" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
@@ -19894,98 +19900,101 @@
         <v>1124</v>
       </c>
       <c r="D859" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E859" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F859" t="s">
         <v>1125</v>
       </c>
-      <c r="I859" t="s">
-        <v>358</v>
+      <c r="I859" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1123</v>
       </c>
-      <c r="B860" s="2"/>
       <c r="C860" t="s">
         <v>1124</v>
       </c>
       <c r="D860" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E860" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F860" t="s">
         <v>1125</v>
       </c>
       <c r="I860" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1123</v>
       </c>
-      <c r="B861" t="s">
-        <v>20</v>
-      </c>
+      <c r="B861" s="2"/>
       <c r="C861" t="s">
         <v>1124</v>
       </c>
       <c r="D861" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E861" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F861" t="s">
         <v>1125</v>
       </c>
       <c r="I861" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1123</v>
       </c>
-      <c r="B862" s="2"/>
+      <c r="B862" t="s">
+        <v>20</v>
+      </c>
       <c r="C862" t="s">
         <v>1124</v>
       </c>
       <c r="D862" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E862" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F862" t="s">
         <v>1125</v>
       </c>
       <c r="I862" t="s">
-        <v>1126</v>
+        <v>436</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1123</v>
       </c>
+      <c r="B863" s="2"/>
       <c r="C863" t="s">
-        <v>1127</v>
+        <v>1124</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1098</v>
       </c>
       <c r="E863" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="F863" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I863" t="s">
-        <v>35</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -19993,16 +20002,16 @@
         <v>1123</v>
       </c>
       <c r="C864" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E864" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F864" t="s">
         <v>1128</v>
       </c>
-      <c r="I864" s="1" t="s">
-        <v>304</v>
+      <c r="I864" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
@@ -20010,89 +20019,89 @@
         <v>1123</v>
       </c>
       <c r="C865" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E865" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F865" t="s">
         <v>1128</v>
       </c>
-      <c r="I865" t="s">
-        <v>1131</v>
+      <c r="I865" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1123</v>
       </c>
-      <c r="B866" s="2"/>
       <c r="C866" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E866" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F866" t="s">
         <v>1128</v>
       </c>
       <c r="I866" t="s">
-        <v>432</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1123</v>
       </c>
-      <c r="B867" t="s">
-        <v>20</v>
-      </c>
+      <c r="B867" s="2"/>
       <c r="C867" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E867" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F867" t="s">
         <v>1128</v>
       </c>
       <c r="I867" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>1123</v>
       </c>
-      <c r="B868" s="2"/>
+      <c r="B868" t="s">
+        <v>20</v>
+      </c>
       <c r="C868" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E868" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F868" t="s">
         <v>1128</v>
       </c>
       <c r="I868" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B869" s="2"/>
+      <c r="C869" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I869" t="s">
         <v>1075</v>
-      </c>
-    </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C870" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E870" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F870" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I870" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
@@ -20100,16 +20109,16 @@
         <v>1135</v>
       </c>
       <c r="C871" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E871" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F871" t="s">
         <v>1137</v>
       </c>
-      <c r="I871" s="1" t="s">
-        <v>335</v>
+      <c r="I871" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
@@ -20117,16 +20126,16 @@
         <v>1135</v>
       </c>
       <c r="C872" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E872" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F872" t="s">
         <v>1137</v>
       </c>
-      <c r="I872" t="s">
-        <v>1140</v>
+      <c r="I872" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
@@ -20134,36 +20143,33 @@
         <v>1135</v>
       </c>
       <c r="C873" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E873" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F873" t="s">
         <v>1137</v>
       </c>
       <c r="I873" t="s">
-        <v>434</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C874" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D874" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E874" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F874" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="I874" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
@@ -20174,16 +20180,16 @@
         <v>1143</v>
       </c>
       <c r="D875" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E875" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F875" t="s">
         <v>1145</v>
       </c>
-      <c r="I875" s="1" t="s">
-        <v>1147</v>
+      <c r="I875" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
@@ -20194,16 +20200,16 @@
         <v>1143</v>
       </c>
       <c r="D876" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E876" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F876" t="s">
         <v>1145</v>
       </c>
-      <c r="I876" t="s">
-        <v>1131</v>
+      <c r="I876" s="1" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
@@ -20214,36 +20220,36 @@
         <v>1143</v>
       </c>
       <c r="D877" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E877" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F877" t="s">
         <v>1145</v>
       </c>
       <c r="I877" t="s">
-        <v>462</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C878" t="s">
         <v>1143</v>
       </c>
       <c r="D878" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="E878" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F878" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I878" s="1" t="s">
-        <v>92</v>
+        <v>1145</v>
+      </c>
+      <c r="I878" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
@@ -20254,16 +20260,16 @@
         <v>1143</v>
       </c>
       <c r="D879" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E879" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F879" t="s">
         <v>1151</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
@@ -20274,16 +20280,16 @@
         <v>1143</v>
       </c>
       <c r="D880" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E880" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F880" t="s">
         <v>1151</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>1152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
@@ -20294,36 +20300,36 @@
         <v>1143</v>
       </c>
       <c r="D881" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E881" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F881" t="s">
         <v>1151</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>570</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C882" t="s">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="D882" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E882" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F882" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>1156</v>
+        <v>570</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
@@ -20334,16 +20340,16 @@
         <v>1077</v>
       </c>
       <c r="D883" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E883" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F883" t="s">
         <v>1155</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
@@ -20354,16 +20360,16 @@
         <v>1077</v>
       </c>
       <c r="D884" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E884" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F884" t="s">
         <v>1155</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
@@ -20374,50 +20380,50 @@
         <v>1077</v>
       </c>
       <c r="D885" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E885" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F885" t="s">
         <v>1155</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="886" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1153</v>
       </c>
-      <c r="G886" t="s">
+      <c r="C886" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I886" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G887" t="s">
         <v>1088</v>
       </c>
-      <c r="H886" t="s">
+      <c r="H887" t="s">
         <v>1162</v>
       </c>
-      <c r="I886" s="4" t="s">
+      <c r="I887" s="4" t="s">
         <v>1466</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C887" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D887" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E887" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F887" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I887" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
@@ -20428,16 +20434,16 @@
         <v>1077</v>
       </c>
       <c r="D888" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E888" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F888" t="s">
         <v>1164</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
@@ -20448,16 +20454,16 @@
         <v>1077</v>
       </c>
       <c r="D889" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E889" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F889" t="s">
         <v>1164</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>1165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
@@ -20468,50 +20474,50 @@
         <v>1077</v>
       </c>
       <c r="D890" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E890" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F890" t="s">
         <v>1164</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="891" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1163</v>
       </c>
-      <c r="G891" t="s">
+      <c r="C891" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I891" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G892" t="s">
         <v>1088</v>
       </c>
-      <c r="H891" t="s">
+      <c r="H892" t="s">
         <v>1162</v>
       </c>
-      <c r="I891" s="4" t="s">
+      <c r="I892" s="4" t="s">
         <v>1466</v>
-      </c>
-    </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C892" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D892" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E892" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F892" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I892" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
@@ -20522,16 +20528,16 @@
         <v>1167</v>
       </c>
       <c r="D893" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E893" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F893" t="s">
         <v>1168</v>
       </c>
-      <c r="I893" s="1" t="s">
-        <v>171</v>
+      <c r="I893" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
@@ -20542,39 +20548,36 @@
         <v>1167</v>
       </c>
       <c r="D894" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E894" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F894" t="s">
         <v>1168</v>
       </c>
-      <c r="I894" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="895" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I894" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>1166</v>
       </c>
-      <c r="B895"/>
       <c r="C895" t="s">
         <v>1167</v>
       </c>
       <c r="D895" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E895" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F895" t="s">
         <v>1168</v>
       </c>
-      <c r="G895"/>
-      <c r="H895"/>
       <c r="I895" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
     </row>
     <row r="896" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20583,19 +20586,21 @@
       </c>
       <c r="B896"/>
       <c r="C896" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D896"/>
+        <v>1167</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1149</v>
+      </c>
       <c r="E896" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="F896" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G896"/>
       <c r="H896"/>
       <c r="I896" t="s">
-        <v>1065</v>
+        <v>412</v>
       </c>
     </row>
     <row r="897" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20604,19 +20609,19 @@
       </c>
       <c r="B897"/>
       <c r="C897" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D897"/>
       <c r="E897" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F897" t="s">
         <v>1170</v>
       </c>
       <c r="G897"/>
       <c r="H897"/>
-      <c r="I897" s="1" t="s">
-        <v>139</v>
+      <c r="I897" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20625,19 +20630,19 @@
       </c>
       <c r="B898"/>
       <c r="C898" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D898"/>
       <c r="E898" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F898" t="s">
         <v>1170</v>
       </c>
       <c r="G898"/>
       <c r="H898"/>
-      <c r="I898" t="s">
-        <v>1173</v>
+      <c r="I898" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="899" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20646,11 +20651,11 @@
       </c>
       <c r="B899"/>
       <c r="C899" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D899"/>
       <c r="E899" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F899" t="s">
         <v>1170</v>
@@ -20658,62 +20663,66 @@
       <c r="G899"/>
       <c r="H899"/>
       <c r="I899" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B900"/>
+      <c r="C900" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D900"/>
+      <c r="E900" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G900"/>
+      <c r="H900"/>
+      <c r="I900" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="900" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="901" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C901" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E901" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F901" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I901" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
+    <row r="901" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="902" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B902" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C902" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F902" s="2" t="s">
         <v>1403</v>
       </c>
       <c r="I902" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>1398</v>
       </c>
+      <c r="B903" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C903" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F903" s="2" t="s">
         <v>1403</v>
       </c>
       <c r="I903" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20721,28 +20730,22 @@
         <v>1398</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D904" s="2" t="s">
-        <v>1189</v>
+        <v>1401</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F904" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="I904" s="3" t="s">
-        <v>1191</v>
+      <c r="I904" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B905" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C905" s="2" t="s">
         <v>1402</v>
       </c>
@@ -20750,76 +20753,79 @@
         <v>1189</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F905" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="I905" s="2" t="s">
-        <v>1193</v>
+      <c r="I905" s="3" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
-        <v>1404</v>
+        <v>1398</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1406</v>
+        <v>1189</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I906" s="2" t="s">
-        <v>462</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B907" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C907" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F907" s="2" t="s">
         <v>1409</v>
       </c>
       <c r="I907" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>1404</v>
       </c>
+      <c r="B908" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C908" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F908" s="2" t="s">
         <v>1409</v>
       </c>
       <c r="I908" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20830,25 +20836,22 @@
         <v>1405</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F909" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="I909" s="3" t="s">
-        <v>1191</v>
+      <c r="I909" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B910" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C910" s="2" t="s">
         <v>1405</v>
       </c>
@@ -20856,18 +20859,18 @@
         <v>1421</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F910" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="I910" s="2" t="s">
-        <v>1193</v>
+      <c r="I910" s="3" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B911" s="2" t="s">
         <v>20</v>
@@ -20876,16 +20879,16 @@
         <v>1405</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I911" s="3" t="s">
-        <v>570</v>
+        <v>1409</v>
+      </c>
+      <c r="I911" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20899,36 +20902,39 @@
         <v>1405</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F912" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I912" s="2" t="s">
-        <v>856</v>
+      <c r="I912" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="913" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>1410</v>
       </c>
+      <c r="B913" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C913" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F913" s="2" t="s">
         <v>1411</v>
       </c>
       <c r="I913" s="2" t="s">
-        <v>987</v>
+        <v>856</v>
       </c>
     </row>
     <row r="914" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20939,25 +20945,22 @@
         <v>1405</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E914" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F914" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I914" s="3" t="s">
-        <v>1249</v>
+      <c r="I914" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="915" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="B915" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C915" s="2" t="s">
         <v>1405</v>
       </c>
@@ -20965,18 +20968,18 @@
         <v>1421</v>
       </c>
       <c r="E915" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F915" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="I915" s="2" t="s">
-        <v>1224</v>
+      <c r="I915" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="916" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="B916" s="2" t="s">
         <v>20</v>
@@ -20985,16 +20988,16 @@
         <v>1405</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="E916" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I916" s="3" t="s">
-        <v>570</v>
+        <v>1411</v>
+      </c>
+      <c r="I916" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="917" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21008,36 +21011,39 @@
         <v>1405</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F917" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I917" s="2" t="s">
-        <v>856</v>
+      <c r="I917" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="918" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>1419</v>
       </c>
+      <c r="B918" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C918" s="2" t="s">
         <v>1405</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E918" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F918" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="I918" s="2" t="s">
-        <v>987</v>
+        <v>856</v>
       </c>
     </row>
     <row r="919" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21048,25 +21054,22 @@
         <v>1405</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E919" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F919" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I919" s="3" t="s">
-        <v>1249</v>
+      <c r="I919" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="920" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="B920" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C920" s="2" t="s">
         <v>1405</v>
       </c>
@@ -21074,76 +21077,79 @@
         <v>1421</v>
       </c>
       <c r="E920" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F920" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I920" s="2" t="s">
-        <v>1224</v>
+      <c r="I920" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="921" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
-        <v>1415</v>
+        <v>1419</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C921" s="2" t="s">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I921" s="3" t="s">
-        <v>533</v>
+        <v>1420</v>
+      </c>
+      <c r="I921" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="922" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B922" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C922" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F922" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I922" s="2" t="s">
-        <v>835</v>
+      <c r="I922" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="923" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>1415</v>
       </c>
+      <c r="B923" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C923" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F923" s="2" t="s">
         <v>1416</v>
       </c>
       <c r="I923" s="2" t="s">
-        <v>987</v>
+        <v>835</v>
       </c>
     </row>
     <row r="924" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21151,28 +21157,25 @@
         <v>1415</v>
       </c>
       <c r="C924" s="2" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1189</v>
+        <v>1414</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I924" s="3" t="s">
-        <v>1249</v>
+      <c r="I924" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="925" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B925" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C925" s="2" t="s">
         <v>1113</v>
       </c>
@@ -21180,76 +21183,79 @@
         <v>1189</v>
       </c>
       <c r="E925" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F925" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="I925" s="2" t="s">
-        <v>1224</v>
+      <c r="I925" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="926" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>1077</v>
+        <v>1113</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1412</v>
+        <v>1189</v>
       </c>
       <c r="E926" s="2" t="s">
-        <v>1070</v>
+        <v>1192</v>
       </c>
       <c r="F926" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I926" s="3" t="s">
-        <v>533</v>
+        <v>1416</v>
+      </c>
+      <c r="I926" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="927" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B927" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C927" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E927" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F927" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I927" s="2" t="s">
-        <v>835</v>
+      <c r="I927" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="928" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>1417</v>
       </c>
+      <c r="B928" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C928" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E928" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F928" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="I928" s="2" t="s">
-        <v>987</v>
+        <v>835</v>
       </c>
     </row>
     <row r="929" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21257,28 +21263,25 @@
         <v>1417</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1189</v>
+        <v>1414</v>
       </c>
       <c r="E929" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F929" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I929" s="3" t="s">
-        <v>1249</v>
+      <c r="I929" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="930" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B930" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C930" s="2" t="s">
         <v>1113</v>
       </c>
@@ -21286,53 +21289,51 @@
         <v>1189</v>
       </c>
       <c r="E930" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F930" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I930" s="2" t="s">
+      <c r="I930" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C931" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I931" s="2" t="s">
         <v>1224</v>
-      </c>
-    </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A931" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B931" s="2"/>
-      <c r="C931" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D931" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E931" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F931" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G931" s="2"/>
-      <c r="H931" s="2"/>
-      <c r="I931" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B932" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B932" s="2"/>
       <c r="C932" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E932" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F932" s="2" t="s">
         <v>1423</v>
@@ -21340,22 +21341,24 @@
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
       <c r="I932" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B933" s="2"/>
+      <c r="B933" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C933" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>1186</v>
+        <v>1072</v>
       </c>
       <c r="F933" s="2" t="s">
         <v>1423</v>
@@ -21363,7 +21366,7 @@
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
       <c r="I933" s="2" t="s">
-        <v>983</v>
+        <v>436</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
@@ -21375,27 +21378,25 @@
         <v>1424</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="E934" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F934" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
-      <c r="I934" s="3" t="s">
-        <v>1191</v>
+      <c r="I934" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B935" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B935" s="2"/>
       <c r="C935" s="2" t="s">
         <v>1424</v>
       </c>
@@ -21403,32 +21404,40 @@
         <v>1421</v>
       </c>
       <c r="E935" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F935" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="G935" s="2"/>
       <c r="H935" s="2"/>
-      <c r="I935" s="2" t="s">
+      <c r="I935" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C936" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G936" s="2"/>
+      <c r="H936" s="2"/>
+      <c r="I936" s="2" t="s">
         <v>1193</v>
-      </c>
-    </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C937" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E937" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F937" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I937" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.25">
@@ -21436,16 +21445,16 @@
         <v>1175</v>
       </c>
       <c r="C938" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E938" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F938" t="s">
         <v>1177</v>
       </c>
-      <c r="I938" s="1" t="s">
-        <v>304</v>
+      <c r="I938" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
@@ -21453,36 +21462,33 @@
         <v>1175</v>
       </c>
       <c r="C939" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E939" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F939" t="s">
         <v>1177</v>
       </c>
-      <c r="I939" t="s">
-        <v>352</v>
+      <c r="I939" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1175</v>
       </c>
-      <c r="B940" t="s">
-        <v>20</v>
-      </c>
       <c r="C940" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E940" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F940" t="s">
         <v>1177</v>
       </c>
       <c r="I940" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
@@ -21493,33 +21499,36 @@
         <v>20</v>
       </c>
       <c r="C941" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E941" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F941" t="s">
         <v>1177</v>
       </c>
       <c r="I941" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1175</v>
       </c>
+      <c r="B942" t="s">
+        <v>20</v>
+      </c>
       <c r="C942" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E942" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F942" t="s">
         <v>1177</v>
       </c>
       <c r="I942" t="s">
-        <v>955</v>
+        <v>436</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
@@ -21527,65 +21536,59 @@
         <v>1175</v>
       </c>
       <c r="C943" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E943" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F943" t="s">
         <v>1177</v>
       </c>
       <c r="I943" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1175</v>
       </c>
-      <c r="B944" t="s">
-        <v>20</v>
-      </c>
       <c r="C944" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E944" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F944" t="s">
         <v>1177</v>
       </c>
       <c r="I944" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1175</v>
       </c>
+      <c r="B945" t="s">
+        <v>20</v>
+      </c>
       <c r="C945" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D945" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E945" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F945" t="s">
         <v>1177</v>
       </c>
       <c r="I945" t="s">
-        <v>1191</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1175</v>
       </c>
-      <c r="B946" t="s">
-        <v>20</v>
-      </c>
       <c r="C946" t="s">
         <v>1188</v>
       </c>
@@ -21593,33 +21596,36 @@
         <v>1189</v>
       </c>
       <c r="E946" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F946" t="s">
         <v>1177</v>
       </c>
       <c r="I946" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1194</v>
+        <v>1175</v>
+      </c>
+      <c r="B947" t="s">
+        <v>20</v>
       </c>
       <c r="C947" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D947" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="E947" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F947" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="I947" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.25">
@@ -21630,16 +21636,16 @@
         <v>1195</v>
       </c>
       <c r="D948" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E948" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F948" t="s">
         <v>1197</v>
       </c>
-      <c r="I948" s="1" t="s">
-        <v>153</v>
+      <c r="I948" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">
@@ -21650,39 +21656,36 @@
         <v>1195</v>
       </c>
       <c r="D949" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E949" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F949" t="s">
         <v>1197</v>
       </c>
-      <c r="I949" t="s">
-        <v>1173</v>
+      <c r="I949" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1194</v>
       </c>
-      <c r="B950" t="s">
-        <v>20</v>
-      </c>
       <c r="C950" t="s">
         <v>1195</v>
       </c>
       <c r="D950" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E950" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F950" t="s">
         <v>1197</v>
       </c>
       <c r="I950" t="s">
-        <v>419</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
@@ -21696,36 +21699,39 @@
         <v>1195</v>
       </c>
       <c r="D951" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E951" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F951" t="s">
         <v>1197</v>
       </c>
       <c r="I951" t="s">
-        <v>702</v>
+        <v>419</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1194</v>
       </c>
+      <c r="B952" t="s">
+        <v>20</v>
+      </c>
       <c r="C952" t="s">
         <v>1195</v>
       </c>
       <c r="D952" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E952" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F952" t="s">
         <v>1197</v>
       </c>
       <c r="I952" t="s">
-        <v>955</v>
+        <v>702</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.25">
@@ -21736,68 +21742,65 @@
         <v>1195</v>
       </c>
       <c r="D953" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E953" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F953" t="s">
         <v>1197</v>
       </c>
       <c r="I953" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1194</v>
       </c>
-      <c r="B954" t="s">
-        <v>20</v>
-      </c>
       <c r="C954" t="s">
         <v>1195</v>
       </c>
       <c r="D954" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E954" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F954" t="s">
         <v>1197</v>
       </c>
       <c r="I954" t="s">
-        <v>1075</v>
+        <v>983</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1194</v>
       </c>
+      <c r="B955" t="s">
+        <v>20</v>
+      </c>
       <c r="C955" t="s">
         <v>1195</v>
       </c>
       <c r="D955" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E955" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F955" t="s">
         <v>1197</v>
       </c>
       <c r="I955" t="s">
-        <v>1191</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1194</v>
       </c>
-      <c r="B956" t="s">
-        <v>20</v>
-      </c>
       <c r="C956" t="s">
         <v>1195</v>
       </c>
@@ -21805,50 +21808,53 @@
         <v>1205</v>
       </c>
       <c r="E956" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F956" t="s">
         <v>1197</v>
       </c>
       <c r="I956" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="B957" t="s">
         <v>20</v>
       </c>
       <c r="C957" t="s">
-        <v>252</v>
+        <v>1195</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1205</v>
       </c>
       <c r="E957" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I957" s="1" t="s">
-        <v>1207</v>
+        <v>1192</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I957" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1208</v>
+        <v>1206</v>
+      </c>
+      <c r="B958" t="s">
+        <v>20</v>
       </c>
       <c r="C958" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D958" t="s">
-        <v>1209</v>
+        <v>252</v>
       </c>
       <c r="E958" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F958" t="s">
-        <v>1210</v>
+        <v>1070</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>1080</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.25">
@@ -21859,16 +21865,16 @@
         <v>1077</v>
       </c>
       <c r="D959" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E959" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F959" t="s">
         <v>1210</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>1212</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.25">
@@ -21879,39 +21885,36 @@
         <v>1077</v>
       </c>
       <c r="D960" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E960" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F960" t="s">
         <v>1210</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1208</v>
       </c>
-      <c r="B961" t="s">
-        <v>20</v>
-      </c>
       <c r="C961" t="s">
         <v>1077</v>
       </c>
       <c r="D961" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E961" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F961" t="s">
         <v>1210</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.25">
@@ -21925,36 +21928,39 @@
         <v>1077</v>
       </c>
       <c r="D962" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E962" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F962" t="s">
         <v>1210</v>
       </c>
-      <c r="I962" t="s">
-        <v>849</v>
+      <c r="I962" s="1" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1208</v>
       </c>
+      <c r="B963" t="s">
+        <v>20</v>
+      </c>
       <c r="C963" t="s">
         <v>1077</v>
       </c>
       <c r="D963" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E963" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F963" t="s">
         <v>1210</v>
       </c>
       <c r="I963" t="s">
-        <v>955</v>
+        <v>849</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.25">
@@ -21965,68 +21971,65 @@
         <v>1077</v>
       </c>
       <c r="D964" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E964" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F964" t="s">
         <v>1210</v>
       </c>
       <c r="I964" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1208</v>
       </c>
-      <c r="B965" t="s">
-        <v>20</v>
-      </c>
       <c r="C965" t="s">
         <v>1077</v>
       </c>
       <c r="D965" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E965" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F965" t="s">
         <v>1210</v>
       </c>
-      <c r="I965" s="1" t="s">
-        <v>1221</v>
+      <c r="I965" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1208</v>
       </c>
+      <c r="B966" t="s">
+        <v>20</v>
+      </c>
       <c r="C966" t="s">
         <v>1077</v>
       </c>
       <c r="D966" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E966" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F966" t="s">
         <v>1210</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1208</v>
       </c>
-      <c r="B967" t="s">
-        <v>20</v>
-      </c>
       <c r="C967" t="s">
         <v>1077</v>
       </c>
@@ -22034,59 +22037,59 @@
         <v>1222</v>
       </c>
       <c r="E967" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F967" t="s">
         <v>1210</v>
       </c>
-      <c r="I967" t="s">
-        <v>1224</v>
+      <c r="I967" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="B968" t="s">
         <v>20</v>
       </c>
       <c r="C968" t="s">
-        <v>1226</v>
+        <v>1077</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1222</v>
       </c>
       <c r="E968" t="s">
-        <v>958</v>
+        <v>1192</v>
+      </c>
+      <c r="F968" t="s">
+        <v>1210</v>
       </c>
       <c r="I968" t="s">
-        <v>955</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1227</v>
+        <v>1225</v>
+      </c>
+      <c r="B969" t="s">
+        <v>20</v>
       </c>
       <c r="C969" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D969" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E969" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F969" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I969" s="1" t="s">
-        <v>1231</v>
+        <v>958</v>
+      </c>
+      <c r="I969" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1227</v>
       </c>
-      <c r="B970" t="s">
-        <v>20</v>
-      </c>
       <c r="C970" t="s">
         <v>1228</v>
       </c>
@@ -22094,33 +22097,36 @@
         <v>1229</v>
       </c>
       <c r="E970" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F970" t="s">
         <v>1230</v>
       </c>
-      <c r="I970" t="s">
-        <v>1224</v>
+      <c r="I970" s="1" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1232</v>
+        <v>1227</v>
+      </c>
+      <c r="B971" t="s">
+        <v>20</v>
       </c>
       <c r="C971" t="s">
-        <v>1077</v>
+        <v>1228</v>
       </c>
       <c r="D971" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="E971" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F971" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I971" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
+      </c>
+      <c r="I971" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.25">
@@ -22131,16 +22137,16 @@
         <v>1077</v>
       </c>
       <c r="D972" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E972" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F972" t="s">
         <v>1233</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.25">
@@ -22151,39 +22157,36 @@
         <v>1077</v>
       </c>
       <c r="D973" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E973" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F973" t="s">
         <v>1233</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1232</v>
       </c>
-      <c r="B974" t="s">
-        <v>20</v>
-      </c>
       <c r="C974" t="s">
         <v>1077</v>
       </c>
       <c r="D974" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E974" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F974" t="s">
         <v>1233</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>541</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.25">
@@ -22197,36 +22200,39 @@
         <v>1077</v>
       </c>
       <c r="D975" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E975" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F975" t="s">
         <v>1233</v>
       </c>
-      <c r="I975" t="s">
-        <v>835</v>
+      <c r="I975" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1232</v>
       </c>
+      <c r="B976" t="s">
+        <v>20</v>
+      </c>
       <c r="C976" t="s">
         <v>1077</v>
       </c>
       <c r="D976" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E976" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F976" t="s">
         <v>1233</v>
       </c>
       <c r="I976" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
@@ -22237,68 +22243,65 @@
         <v>1077</v>
       </c>
       <c r="D977" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E977" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F977" t="s">
         <v>1233</v>
       </c>
       <c r="I977" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1232</v>
       </c>
-      <c r="B978" t="s">
-        <v>20</v>
-      </c>
       <c r="C978" t="s">
         <v>1077</v>
       </c>
       <c r="D978" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E978" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F978" t="s">
         <v>1233</v>
       </c>
-      <c r="I978" s="1" t="s">
-        <v>1221</v>
+      <c r="I978" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1232</v>
       </c>
+      <c r="B979" t="s">
+        <v>20</v>
+      </c>
       <c r="C979" t="s">
         <v>1077</v>
       </c>
       <c r="D979" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E979" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F979" t="s">
         <v>1233</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1232</v>
       </c>
-      <c r="B980" t="s">
-        <v>20</v>
-      </c>
       <c r="C980" t="s">
         <v>1077</v>
       </c>
@@ -22306,33 +22309,36 @@
         <v>1222</v>
       </c>
       <c r="E980" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F980" t="s">
         <v>1233</v>
       </c>
-      <c r="I980" t="s">
-        <v>1238</v>
+      <c r="I980" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1239</v>
+        <v>1232</v>
+      </c>
+      <c r="B981" t="s">
+        <v>20</v>
       </c>
       <c r="C981" t="s">
         <v>1077</v>
       </c>
       <c r="D981" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
       <c r="E981" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F981" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I981" s="1" t="s">
-        <v>90</v>
+        <v>1233</v>
+      </c>
+      <c r="I981" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.25">
@@ -22343,16 +22349,16 @@
         <v>1077</v>
       </c>
       <c r="D982" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E982" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F982" t="s">
         <v>1240</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>1241</v>
+        <v>90</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
@@ -22363,16 +22369,16 @@
         <v>1077</v>
       </c>
       <c r="D983" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E983" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F983" t="s">
         <v>1240</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
@@ -22383,16 +22389,16 @@
         <v>1077</v>
       </c>
       <c r="D984" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E984" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F984" t="s">
         <v>1240</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>582</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.25">
@@ -22403,16 +22409,16 @@
         <v>1077</v>
       </c>
       <c r="D985" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E985" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F985" t="s">
         <v>1240</v>
       </c>
-      <c r="I985" t="s">
-        <v>835</v>
+      <c r="I985" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.25">
@@ -22423,16 +22429,16 @@
         <v>1077</v>
       </c>
       <c r="D986" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E986" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F986" t="s">
         <v>1240</v>
       </c>
       <c r="I986" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.25">
@@ -22443,16 +22449,16 @@
         <v>1077</v>
       </c>
       <c r="D987" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E987" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F987" t="s">
         <v>1240</v>
       </c>
       <c r="I987" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.25">
@@ -22463,16 +22469,16 @@
         <v>1077</v>
       </c>
       <c r="D988" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E988" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F988" t="s">
         <v>1240</v>
       </c>
-      <c r="I988" s="1" t="s">
-        <v>1243</v>
+      <c r="I988" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.25">
@@ -22483,36 +22489,36 @@
         <v>1077</v>
       </c>
       <c r="D989" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E989" t="s">
-        <v>1244</v>
+        <v>1074</v>
       </c>
       <c r="F989" t="s">
         <v>1240</v>
       </c>
       <c r="I989" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F990" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I990" s="1" t="s">
         <v>1245</v>
-      </c>
-    </row>
-    <row r="990" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C990" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D990" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E990" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F990" s="2" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I990" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="991" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22523,16 +22529,16 @@
         <v>1077</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E991" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F991" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I991" s="3" t="s">
-        <v>1241</v>
+        <v>90</v>
       </c>
     </row>
     <row r="992" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22543,16 +22549,16 @@
         <v>1077</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F992" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I992" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="993" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22563,16 +22569,16 @@
         <v>1077</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E993" s="2" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F993" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I993" s="3" t="s">
-        <v>582</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="994" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22583,16 +22589,16 @@
         <v>1077</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E994" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F994" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="I994" s="2" t="s">
-        <v>835</v>
+      <c r="I994" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="995" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22603,16 +22609,16 @@
         <v>1077</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F995" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I995" s="2" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="996" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22623,16 +22629,16 @@
         <v>1077</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F996" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I996" s="2" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="997" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22643,16 +22649,16 @@
         <v>1077</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E997" s="2" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F997" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="I997" s="3" t="s">
-        <v>1243</v>
+      <c r="I997" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="998" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22663,36 +22669,36 @@
         <v>1077</v>
       </c>
       <c r="D998" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E998" s="2" t="s">
-        <v>1244</v>
+        <v>1074</v>
       </c>
       <c r="F998" s="2" t="s">
         <v>1459</v>
       </c>
       <c r="I998" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C999" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F999" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I999" s="3" t="s">
         <v>1245</v>
-      </c>
-    </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C999" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D999" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E999" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F999" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I999" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
@@ -22703,16 +22709,16 @@
         <v>1195</v>
       </c>
       <c r="D1000" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E1000" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1000" t="s">
         <v>1247</v>
       </c>
       <c r="I1000" s="1" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
@@ -22723,39 +22729,36 @@
         <v>1195</v>
       </c>
       <c r="D1001" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E1001" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1001" t="s">
         <v>1247</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>1248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>1246</v>
       </c>
-      <c r="B1002" t="s">
-        <v>20</v>
-      </c>
       <c r="C1002" t="s">
         <v>1195</v>
       </c>
       <c r="D1002" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E1002" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1002" t="s">
         <v>1247</v>
       </c>
       <c r="I1002" s="1" t="s">
-        <v>605</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
@@ -22769,36 +22772,39 @@
         <v>1195</v>
       </c>
       <c r="D1003" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E1003" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1003" t="s">
         <v>1247</v>
       </c>
-      <c r="I1003" t="s">
-        <v>856</v>
+      <c r="I1003" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>1246</v>
       </c>
+      <c r="B1004" t="s">
+        <v>20</v>
+      </c>
       <c r="C1004" t="s">
         <v>1195</v>
       </c>
       <c r="D1004" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E1004" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1004" t="s">
         <v>1247</v>
       </c>
       <c r="I1004" t="s">
-        <v>955</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
@@ -22809,68 +22815,65 @@
         <v>1195</v>
       </c>
       <c r="D1005" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1005" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1005" t="s">
         <v>1247</v>
       </c>
       <c r="I1005" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1246</v>
       </c>
-      <c r="B1006" t="s">
-        <v>20</v>
-      </c>
       <c r="C1006" t="s">
         <v>1195</v>
       </c>
       <c r="D1006" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E1006" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1006" t="s">
         <v>1247</v>
       </c>
-      <c r="I1006" s="1" t="s">
-        <v>1118</v>
+      <c r="I1006" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1246</v>
       </c>
+      <c r="B1007" t="s">
+        <v>20</v>
+      </c>
       <c r="C1007" t="s">
         <v>1195</v>
       </c>
       <c r="D1007" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E1007" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1007" t="s">
         <v>1247</v>
       </c>
       <c r="I1007" s="1" t="s">
-        <v>1249</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>1246</v>
       </c>
-      <c r="B1008" t="s">
-        <v>20</v>
-      </c>
       <c r="C1008" t="s">
         <v>1195</v>
       </c>
@@ -22878,33 +22881,36 @@
         <v>1205</v>
       </c>
       <c r="E1008" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1008" t="s">
         <v>1247</v>
       </c>
-      <c r="I1008" t="s">
-        <v>1224</v>
+      <c r="I1008" s="1" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1250</v>
+        <v>1246</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>20</v>
       </c>
       <c r="C1009" t="s">
-        <v>1077</v>
+        <v>1195</v>
       </c>
       <c r="D1009" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E1009" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F1009" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I1009" s="1" t="s">
-        <v>23</v>
+        <v>1247</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
@@ -22915,16 +22921,16 @@
         <v>1077</v>
       </c>
       <c r="D1010" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E1010" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1010" t="s">
         <v>1251</v>
       </c>
       <c r="I1010" s="1" t="s">
-        <v>1252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
@@ -22935,39 +22941,36 @@
         <v>1077</v>
       </c>
       <c r="D1011" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E1011" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1011" t="s">
         <v>1251</v>
       </c>
       <c r="I1011" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1250</v>
       </c>
-      <c r="B1012" t="s">
-        <v>20</v>
-      </c>
       <c r="C1012" t="s">
         <v>1077</v>
       </c>
       <c r="D1012" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E1012" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1012" t="s">
         <v>1251</v>
       </c>
       <c r="I1012" s="1" t="s">
-        <v>548</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
@@ -22981,36 +22984,39 @@
         <v>1077</v>
       </c>
       <c r="D1013" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E1013" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1013" t="s">
         <v>1251</v>
       </c>
-      <c r="I1013" t="s">
-        <v>835</v>
+      <c r="I1013" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>1250</v>
       </c>
+      <c r="B1014" t="s">
+        <v>20</v>
+      </c>
       <c r="C1014" t="s">
         <v>1077</v>
       </c>
       <c r="D1014" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E1014" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1014" t="s">
         <v>1251</v>
       </c>
       <c r="I1014" t="s">
-        <v>955</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
@@ -23021,68 +23027,65 @@
         <v>1077</v>
       </c>
       <c r="D1015" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E1015" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1015" t="s">
         <v>1251</v>
       </c>
       <c r="I1015" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1250</v>
       </c>
-      <c r="B1016" t="s">
-        <v>20</v>
-      </c>
       <c r="C1016" t="s">
         <v>1077</v>
       </c>
       <c r="D1016" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E1016" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1016" t="s">
         <v>1251</v>
       </c>
-      <c r="I1016" s="1" t="s">
-        <v>1243</v>
+      <c r="I1016" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1250</v>
       </c>
+      <c r="B1017" t="s">
+        <v>20</v>
+      </c>
       <c r="C1017" t="s">
         <v>1077</v>
       </c>
       <c r="D1017" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E1017" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1017" t="s">
         <v>1251</v>
       </c>
       <c r="I1017" s="1" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>1250</v>
       </c>
-      <c r="B1018" t="s">
-        <v>20</v>
-      </c>
       <c r="C1018" t="s">
         <v>1077</v>
       </c>
@@ -23090,70 +23093,73 @@
         <v>1222</v>
       </c>
       <c r="E1018" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1018" t="s">
         <v>1251</v>
       </c>
-      <c r="I1018" t="s">
-        <v>1224</v>
+      <c r="I1018" s="1" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="B1019" t="s">
         <v>20</v>
       </c>
       <c r="C1019" t="s">
-        <v>1226</v>
+        <v>1077</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1222</v>
       </c>
       <c r="E1019" t="s">
-        <v>958</v>
+        <v>1192</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>1251</v>
       </c>
       <c r="I1019" t="s">
-        <v>965</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C1020" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>1196</v>
+        <v>1255</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1226</v>
       </c>
       <c r="E1020" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F1020" t="s">
-        <v>1258</v>
+        <v>958</v>
       </c>
       <c r="I1020" t="s">
-        <v>35</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>1256</v>
       </c>
-      <c r="C1021" t="s">
+      <c r="C1021" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="D1021" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E1021" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1021" t="s">
         <v>1258</v>
       </c>
-      <c r="I1021" s="1" t="s">
-        <v>139</v>
+      <c r="I1021" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
@@ -23164,39 +23170,36 @@
         <v>1257</v>
       </c>
       <c r="D1022" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E1022" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1022" t="s">
         <v>1258</v>
       </c>
-      <c r="I1022" t="s">
-        <v>1173</v>
+      <c r="I1022" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>1256</v>
       </c>
-      <c r="B1023" t="s">
-        <v>20</v>
-      </c>
       <c r="C1023" t="s">
         <v>1257</v>
       </c>
       <c r="D1023" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E1023" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1023" t="s">
         <v>1258</v>
       </c>
       <c r="I1023" t="s">
-        <v>412</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
@@ -23210,36 +23213,39 @@
         <v>1257</v>
       </c>
       <c r="D1024" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E1024" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1024" t="s">
         <v>1258</v>
       </c>
       <c r="I1024" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>1256</v>
       </c>
+      <c r="B1025" t="s">
+        <v>20</v>
+      </c>
       <c r="C1025" t="s">
         <v>1257</v>
       </c>
       <c r="D1025" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E1025" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1025" t="s">
         <v>1258</v>
       </c>
       <c r="I1025" t="s">
-        <v>955</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
@@ -23250,68 +23256,65 @@
         <v>1257</v>
       </c>
       <c r="D1026" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1026" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1026" t="s">
         <v>1258</v>
       </c>
       <c r="I1026" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>1256</v>
       </c>
-      <c r="B1027" t="s">
-        <v>20</v>
-      </c>
       <c r="C1027" t="s">
         <v>1257</v>
       </c>
       <c r="D1027" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E1027" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1027" t="s">
         <v>1258</v>
       </c>
       <c r="I1027" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>1256</v>
       </c>
+      <c r="B1028" t="s">
+        <v>20</v>
+      </c>
       <c r="C1028" t="s">
         <v>1257</v>
       </c>
       <c r="D1028" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E1028" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1028" t="s">
         <v>1258</v>
       </c>
       <c r="I1028" t="s">
-        <v>1191</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>1256</v>
       </c>
-      <c r="B1029" t="s">
-        <v>20</v>
-      </c>
       <c r="C1029" t="s">
         <v>1257</v>
       </c>
@@ -23319,30 +23322,36 @@
         <v>1205</v>
       </c>
       <c r="E1029" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1029" t="s">
         <v>1258</v>
       </c>
       <c r="I1029" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>1256</v>
       </c>
+      <c r="B1030" t="s">
+        <v>20</v>
+      </c>
       <c r="C1030" t="s">
-        <v>1259</v>
+        <v>1257</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1205</v>
       </c>
       <c r="E1030" t="s">
-        <v>1063</v>
+        <v>1192</v>
       </c>
       <c r="F1030" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I1030" t="s">
-        <v>1065</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
@@ -23350,16 +23359,16 @@
         <v>1256</v>
       </c>
       <c r="C1031" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E1031" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F1031" t="s">
         <v>1260</v>
       </c>
-      <c r="I1031" s="1" t="s">
-        <v>1262</v>
+      <c r="I1031" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
@@ -23367,36 +23376,33 @@
         <v>1256</v>
       </c>
       <c r="C1032" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E1032" t="s">
-        <v>345</v>
+        <v>1067</v>
       </c>
       <c r="F1032" t="s">
         <v>1260</v>
       </c>
-      <c r="I1032" t="s">
-        <v>352</v>
+      <c r="I1032" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>1256</v>
       </c>
-      <c r="B1033" t="s">
-        <v>20</v>
-      </c>
       <c r="C1033" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E1033" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F1033" t="s">
         <v>1260</v>
       </c>
       <c r="I1033" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
@@ -23407,33 +23413,36 @@
         <v>20</v>
       </c>
       <c r="C1034" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E1034" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F1034" t="s">
         <v>1260</v>
       </c>
       <c r="I1034" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>1256</v>
       </c>
+      <c r="B1035" t="s">
+        <v>20</v>
+      </c>
       <c r="C1035" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E1035" t="s">
-        <v>1184</v>
+        <v>1072</v>
       </c>
       <c r="F1035" t="s">
         <v>1260</v>
       </c>
       <c r="I1035" t="s">
-        <v>955</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
@@ -23441,65 +23450,59 @@
         <v>1256</v>
       </c>
       <c r="C1036" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E1036" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F1036" t="s">
         <v>1260</v>
       </c>
       <c r="I1036" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1256</v>
       </c>
-      <c r="B1037" t="s">
-        <v>20</v>
-      </c>
       <c r="C1037" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E1037" t="s">
-        <v>1074</v>
+        <v>1186</v>
       </c>
       <c r="F1037" t="s">
         <v>1260</v>
       </c>
       <c r="I1037" t="s">
-        <v>1075</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>1256</v>
       </c>
+      <c r="B1038" t="s">
+        <v>20</v>
+      </c>
       <c r="C1038" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>1189</v>
+        <v>1268</v>
       </c>
       <c r="E1038" t="s">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="F1038" t="s">
         <v>1260</v>
       </c>
       <c r="I1038" t="s">
-        <v>1191</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>1256</v>
       </c>
-      <c r="B1039" t="s">
-        <v>20</v>
-      </c>
       <c r="C1039" t="s">
         <v>1269</v>
       </c>
@@ -23507,79 +23510,79 @@
         <v>1189</v>
       </c>
       <c r="E1039" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1039" t="s">
         <v>1260</v>
       </c>
       <c r="I1039" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I1040" t="s">
         <v>1193</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E1041" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1041" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I1041" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>1270</v>
       </c>
-      <c r="B1042" t="s">
-        <v>20</v>
-      </c>
       <c r="C1042" t="s">
         <v>1271</v>
       </c>
       <c r="E1042" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1042" t="s">
         <v>1272</v>
       </c>
       <c r="I1042" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1273</v>
+        <v>1270</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>20</v>
       </c>
       <c r="C1043" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>1189</v>
+        <v>1271</v>
       </c>
       <c r="E1043" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1043" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I1043" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>1273</v>
       </c>
-      <c r="B1044" t="s">
-        <v>20</v>
-      </c>
       <c r="C1044" t="s">
         <v>1274</v>
       </c>
@@ -23587,60 +23590,69 @@
         <v>1189</v>
       </c>
       <c r="E1044" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1044" t="s">
         <v>1275</v>
       </c>
       <c r="I1044" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1276</v>
+        <v>1273</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>20</v>
       </c>
       <c r="C1045" t="s">
-        <v>1277</v>
+        <v>1274</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1189</v>
       </c>
       <c r="E1045" t="s">
-        <v>1278</v>
+        <v>1192</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1275</v>
       </c>
       <c r="I1045" t="s">
-        <v>1279</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>1276</v>
       </c>
-      <c r="G1046" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1046" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1046" s="1" t="s">
-        <v>1282</v>
+      <c r="C1046" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1047" t="s">
-        <v>1284</v>
+        <v>1276</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1047" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C1048" t="s">
         <v>1277</v>
@@ -23649,66 +23661,63 @@
         <v>1278</v>
       </c>
       <c r="I1048" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>1285</v>
       </c>
-      <c r="G1049" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1049" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1049" s="1" t="s">
-        <v>90</v>
+      <c r="C1049" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1050" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1050" t="s">
-        <v>1288</v>
+        <v>1285</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1050" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>1287</v>
       </c>
-      <c r="G1051" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1051" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1051" s="1" t="s">
-        <v>1030</v>
+      <c r="C1051" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1052" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1052" t="s">
-        <v>1290</v>
+        <v>1287</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1052" s="1" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
@@ -23718,127 +23727,121 @@
       <c r="B1053" t="s">
         <v>20</v>
       </c>
-      <c r="G1053" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1053" t="s">
-        <v>1291</v>
+      <c r="C1053" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1278</v>
       </c>
       <c r="I1053" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1054" t="s">
-        <v>1278</v>
+        <v>1289</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>1291</v>
       </c>
       <c r="I1054" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>1293</v>
       </c>
-      <c r="G1055" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1055" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1055" s="1" t="s">
-        <v>1295</v>
+      <c r="C1055" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1056" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1056" t="s">
-        <v>1297</v>
+        <v>1293</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1056" s="1" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>1296</v>
       </c>
-      <c r="G1057" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1057" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1057" s="1" t="s">
-        <v>1298</v>
+      <c r="C1057" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1057" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1058" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1058" t="s">
-        <v>1300</v>
+        <v>1296</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1058" s="1" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>1299</v>
       </c>
-      <c r="G1059" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1059" t="s">
-        <v>1281</v>
+      <c r="C1059" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1278</v>
       </c>
       <c r="I1059" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1060" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E1060" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1060" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I1060" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1060" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>1301</v>
       </c>
-      <c r="B1061" t="s">
-        <v>20</v>
-      </c>
       <c r="C1061" t="s">
         <v>1274</v>
       </c>
@@ -23846,190 +23849,190 @@
         <v>1189</v>
       </c>
       <c r="E1061" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1061" t="s">
         <v>1302</v>
       </c>
-      <c r="I1061" t="s">
-        <v>1224</v>
+      <c r="I1061" s="1" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1304</v>
+        <v>1301</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>20</v>
       </c>
       <c r="C1062" t="s">
-        <v>1228</v>
+        <v>1274</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1189</v>
       </c>
       <c r="E1062" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1062" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I1062" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
+      </c>
+      <c r="I1062" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>1304</v>
       </c>
-      <c r="B1063" t="s">
-        <v>20</v>
-      </c>
       <c r="C1063" t="s">
         <v>1228</v>
       </c>
       <c r="E1063" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1063" t="s">
         <v>1305</v>
       </c>
-      <c r="I1063" t="s">
-        <v>1224</v>
+      <c r="I1063" s="1" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1307</v>
+        <v>1304</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>20</v>
       </c>
       <c r="C1064" t="s">
         <v>1228</v>
       </c>
       <c r="E1064" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1064" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I1064" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>1307</v>
       </c>
-      <c r="B1065" t="s">
-        <v>20</v>
-      </c>
       <c r="C1065" t="s">
         <v>1228</v>
       </c>
       <c r="E1065" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1065" t="s">
         <v>1308</v>
       </c>
-      <c r="I1065" t="s">
-        <v>1224</v>
+      <c r="I1065" s="1" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1309</v>
+        <v>1307</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>20</v>
       </c>
       <c r="C1066" t="s">
         <v>1228</v>
       </c>
       <c r="E1066" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1066" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I1066" s="1" t="s">
-        <v>1223</v>
+        <v>1308</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>1309</v>
       </c>
-      <c r="B1067" t="s">
-        <v>20</v>
-      </c>
       <c r="C1067" t="s">
         <v>1228</v>
       </c>
       <c r="E1067" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1067" t="s">
         <v>1310</v>
       </c>
-      <c r="I1067" t="s">
-        <v>1238</v>
+      <c r="I1067" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1311</v>
+        <v>1309</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>20</v>
       </c>
       <c r="C1068" t="s">
         <v>1228</v>
       </c>
       <c r="E1068" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1068" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I1068" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
+      </c>
+      <c r="I1068" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>1311</v>
       </c>
-      <c r="B1069" t="s">
-        <v>20</v>
-      </c>
       <c r="C1069" t="s">
         <v>1228</v>
       </c>
       <c r="E1069" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1069" t="s">
         <v>1312</v>
       </c>
-      <c r="I1069" t="s">
-        <v>1224</v>
+      <c r="I1069" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1314</v>
+        <v>1311</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>20</v>
       </c>
       <c r="C1070" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>1189</v>
+        <v>1228</v>
       </c>
       <c r="E1070" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1070" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I1070" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
+      </c>
+      <c r="I1070" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>1314</v>
       </c>
-      <c r="B1071" t="s">
-        <v>20</v>
-      </c>
       <c r="C1071" t="s">
         <v>1274</v>
       </c>
@@ -24037,133 +24040,137 @@
         <v>1189</v>
       </c>
       <c r="E1071" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1071" t="s">
         <v>1315</v>
       </c>
-      <c r="I1071" t="s">
-        <v>1238</v>
+      <c r="I1071" s="1" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1317</v>
+        <v>1314</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>20</v>
       </c>
       <c r="C1072" t="s">
-        <v>1228</v>
+        <v>1274</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1189</v>
       </c>
       <c r="E1072" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F1072" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I1072" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+      <c r="I1072" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>1317</v>
       </c>
-      <c r="B1073" t="s">
-        <v>20</v>
-      </c>
       <c r="C1073" t="s">
         <v>1228</v>
       </c>
-      <c r="D1073"/>
       <c r="E1073" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1073" t="s">
         <v>1318</v>
       </c>
-      <c r="G1073"/>
-      <c r="H1073"/>
-      <c r="I1073" t="s">
-        <v>1224</v>
+      <c r="I1073" s="1" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="1074" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B1074"/>
+        <v>1317</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>20</v>
+      </c>
       <c r="C1074" t="s">
-        <v>1277</v>
+        <v>1228</v>
       </c>
       <c r="D1074"/>
       <c r="E1074" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F1074"/>
+        <v>1192</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1318</v>
+      </c>
       <c r="G1074"/>
       <c r="H1074"/>
       <c r="I1074" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>1320</v>
       </c>
-      <c r="G1075" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1075" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1075" s="1" t="s">
-        <v>1321</v>
+      <c r="B1075"/>
+      <c r="C1075" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1075"/>
+      <c r="E1075" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1075"/>
+      <c r="G1075"/>
+      <c r="H1075"/>
+      <c r="I1075" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1076" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1076" t="s">
-        <v>1294</v>
+        <v>1320</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1076" s="1" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>1322</v>
       </c>
-      <c r="G1077" t="s">
+      <c r="C1077" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1077" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G1078" t="s">
         <v>1280</v>
       </c>
-      <c r="H1077" t="s">
+      <c r="H1078" t="s">
         <v>1281</v>
       </c>
-      <c r="I1077" s="1" t="s">
+      <c r="I1078" s="1" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1078" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1078" s="2"/>
-      <c r="C1078" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D1078" s="2"/>
-      <c r="E1078" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F1078" s="2"/>
-      <c r="G1078" s="2"/>
-      <c r="H1078" s="2"/>
-      <c r="I1078" s="2" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
@@ -24171,35 +24178,37 @@
         <v>1437</v>
       </c>
       <c r="B1079" s="2"/>
-      <c r="C1079" s="2"/>
+      <c r="C1079" s="2" t="s">
+        <v>1277</v>
+      </c>
       <c r="D1079" s="2"/>
-      <c r="E1079" s="2"/>
+      <c r="E1079" s="2" t="s">
+        <v>1278</v>
+      </c>
       <c r="F1079" s="2"/>
-      <c r="G1079" s="2" t="s">
+      <c r="G1079" s="2"/>
+      <c r="H1079" s="2"/>
+      <c r="I1079" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1080" s="2"/>
+      <c r="C1080" s="2"/>
+      <c r="D1080" s="2"/>
+      <c r="E1080" s="2"/>
+      <c r="F1080" s="2"/>
+      <c r="G1080" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="H1079" s="2" t="s">
+      <c r="H1080" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="I1079" s="3" t="s">
+      <c r="I1080" s="3" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1080" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1080" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
@@ -24209,92 +24218,95 @@
       <c r="B1081" t="s">
         <v>20</v>
       </c>
-      <c r="G1081" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1081" t="s">
-        <v>1291</v>
+      <c r="C1081" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1278</v>
       </c>
       <c r="I1081" t="s">
-        <v>561</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1082" t="s">
-        <v>1278</v>
+        <v>1324</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>1291</v>
       </c>
       <c r="I1082" t="s">
-        <v>1279</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>1325</v>
       </c>
-      <c r="G1083" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1083" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1083" s="1" t="s">
-        <v>1326</v>
+      <c r="C1083" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1084" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1084" t="s">
-        <v>1279</v>
+        <v>1325</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1084" s="1" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>1327</v>
       </c>
-      <c r="G1085" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1085" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1085" s="1" t="s">
-        <v>1328</v>
+      <c r="C1085" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1086" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1086" t="s">
-        <v>1284</v>
+        <v>1327</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1086" s="1" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C1087" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="E1087" t="s">
         <v>1278</v>
@@ -24305,131 +24317,128 @@
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C1088" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E1088" t="s">
         <v>1278</v>
       </c>
       <c r="I1088" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1331</v>
       </c>
-      <c r="G1089" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1089" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1089" s="1" t="s">
-        <v>1332</v>
+      <c r="C1089" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C1090" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1090" t="s">
-        <v>1286</v>
+        <v>1331</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1090" s="1" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>1333</v>
       </c>
-      <c r="G1091" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1091" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1091" s="1" t="s">
-        <v>81</v>
+      <c r="C1091" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1092" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1092" t="s">
-        <v>1288</v>
+        <v>1333</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1092" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>1334</v>
       </c>
-      <c r="G1093" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1093" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1093" s="1" t="s">
-        <v>1335</v>
+      <c r="C1093" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1094" t="s">
-        <v>1288</v>
+        <v>1334</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1094" s="1" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>1336</v>
       </c>
-      <c r="G1095" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1095" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1095" s="1" t="s">
-        <v>1118</v>
+      <c r="C1095" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1096" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1096" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1096" t="s">
-        <v>1290</v>
+        <v>1336</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1096" s="1" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
@@ -24439,31 +24448,31 @@
       <c r="B1097" t="s">
         <v>20</v>
       </c>
-      <c r="G1097" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1097" t="s">
-        <v>1291</v>
+      <c r="C1097" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1278</v>
       </c>
       <c r="I1097" t="s">
-        <v>1338</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B1098" t="s">
         <v>20</v>
       </c>
-      <c r="C1098" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1098" t="s">
-        <v>1278</v>
+      <c r="G1098" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>1291</v>
       </c>
       <c r="I1098" t="s">
-        <v>1290</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
@@ -24473,211 +24482,205 @@
       <c r="B1099" t="s">
         <v>20</v>
       </c>
-      <c r="G1099" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1099" t="s">
-        <v>1291</v>
+      <c r="C1099" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1278</v>
       </c>
       <c r="I1099" t="s">
-        <v>561</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1100" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1100" t="s">
-        <v>1278</v>
+        <v>1339</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>1291</v>
       </c>
       <c r="I1100" t="s">
-        <v>1294</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>1340</v>
       </c>
-      <c r="G1101" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1101" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1101" s="1" t="s">
-        <v>1341</v>
+      <c r="C1101" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C1102" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1102" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1102" t="s">
-        <v>1294</v>
+        <v>1340</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1102" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>1342</v>
       </c>
-      <c r="G1103" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1103" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1103" s="1" t="s">
-        <v>1341</v>
+      <c r="C1103" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1104" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1104" t="s">
-        <v>1297</v>
+        <v>1342</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1104" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>1343</v>
       </c>
-      <c r="G1105" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1105" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1105" s="1" t="s">
-        <v>1344</v>
+      <c r="C1105" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1105" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C1106" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1106" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1106" t="s">
-        <v>1297</v>
+        <v>1343</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1106" s="1" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>1345</v>
       </c>
-      <c r="G1107" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1107" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1107" s="1" t="s">
-        <v>1346</v>
+      <c r="C1107" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C1108" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1108" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I1108" t="s">
-        <v>1300</v>
+        <v>1345</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I1108" s="1" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>1347</v>
       </c>
-      <c r="G1109" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1109" t="s">
-        <v>1281</v>
+      <c r="C1109" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>1278</v>
       </c>
       <c r="I1109" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C1110" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1110" t="s">
-        <v>1278</v>
+        <v>1347</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>1281</v>
       </c>
       <c r="I1110" t="s">
-        <v>1300</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>1348</v>
       </c>
-      <c r="G1111" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H1111" t="s">
-        <v>1281</v>
+      <c r="C1111" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>1278</v>
       </c>
       <c r="I1111" t="s">
-        <v>955</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1112" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E1112" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F1112" t="s">
-        <v>1351</v>
+        <v>1348</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>1281</v>
       </c>
       <c r="I1112" t="s">
-        <v>1191</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>1349</v>
       </c>
-      <c r="B1113" t="s">
-        <v>20</v>
-      </c>
       <c r="C1113" t="s">
         <v>1350</v>
       </c>
@@ -24685,29 +24688,52 @@
         <v>1189</v>
       </c>
       <c r="E1113" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F1113" t="s">
         <v>1351</v>
       </c>
       <c r="I1113" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>1349</v>
       </c>
+      <c r="B1114" t="s">
+        <v>20</v>
+      </c>
       <c r="C1114" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I1114" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1115" t="s">
         <v>1352</v>
       </c>
-      <c r="E1114" t="s">
+      <c r="E1115" t="s">
         <v>1244</v>
       </c>
-      <c r="F1114" t="s">
+      <c r="F1115" t="s">
         <v>1353</v>
       </c>
-      <c r="I1114" t="s">
+      <c r="I1115" t="s">
         <v>1354</v>
       </c>
     </row>
